--- a/Design/DataTable/UpgradeCard.xlsx
+++ b/Design/DataTable/UpgradeCard.xlsx
@@ -21,619 +21,778 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="275">
   <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 속도 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 속도 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 속도 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 2000, 미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 속도 향상 III</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
+    <x:t>빠른 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>죽음의 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLDRS-95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 5% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 1&lt;c&gt; 녹색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>int</x:t>
   </x:si>
   <x:si>
     <x:t>Contents</x:t>
   </x:si>
   <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속), 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 200, 전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 사거리 각도가 120도로 증가, 화염방사타워의 Attack + 150</x:t>
+    <x:t>독 타워 Ability 피해 +10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 5&lt;c&gt; 녹색보석타워의 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 전기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트닝 필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플라즈마 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 라이트닝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 폭격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이퀄라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레임 헤이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 1 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 50% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 20% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 10 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 10% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 10000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워의 가격 - 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워의 가격 - 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워의 가격 - 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 3 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채굴 타워의 가격 - 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붕괴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
   </x:si>
   <x:si>
     <x:t>폭탄</x:t>
   </x:si>
   <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 50% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 10000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 10 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 20% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 10% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 3 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 50</x:t>
+    <x:t>벽 타워에 대한 설명</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속), 전기충격기 타워의 Attack + 75</x:t>
   </x:si>
   <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속), 독 타워 Ability 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 10000, 폭탄 범위 5x5로 확장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 2000, 미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가, 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가, 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가, 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 50, 개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가, 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability +8, 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLDRS-95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 5% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 5, 녹색보석타워의 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 1, 녹색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 3, 대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 3, 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>붕괴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 3, 미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 10, 개틀링건 타워의 Attak +20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 II</x:t>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack + 150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
@@ -642,208 +801,49 @@
     <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
   </x:si>
   <x:si>
-    <x:t>대포 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트닝 필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이퀄라이저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 폭격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플라즈마 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 라이트닝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레임 헤이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 전기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 5, 적색보석타워의 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 50, 적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 1000, 대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 1</x:t>
+    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 50&lt;c&gt; 적색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 5&lt;c&gt; 적색보석타워의 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1700,8 +1700,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E143"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D12" activeCellId="0" sqref="D12:D12"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C128" activeCellId="0" sqref="C128:C128"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -1714,36 +1714,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" ht="16.399999999999999">
@@ -1751,10 +1751,10 @@
         <x:v>10101</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>0</x:v>
@@ -1768,10 +1768,10 @@
         <x:v>10102</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>0</x:v>
@@ -1785,10 +1785,10 @@
         <x:v>10103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>0</x:v>
@@ -1802,10 +1802,10 @@
         <x:v>10104</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>50</x:v>
@@ -1819,10 +1819,10 @@
         <x:v>10105</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>100</x:v>
@@ -1836,10 +1836,10 @@
         <x:v>10106</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>0</x:v>
@@ -1853,10 +1853,10 @@
         <x:v>10107</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>50</x:v>
@@ -1870,10 +1870,10 @@
         <x:v>10108</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>100</x:v>
@@ -1887,10 +1887,10 @@
         <x:v>10109</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>0</x:v>
@@ -1904,10 +1904,10 @@
         <x:v>10110</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>0</x:v>
@@ -1921,10 +1921,10 @@
         <x:v>10111</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>50</x:v>
@@ -1938,10 +1938,10 @@
         <x:v>10112</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>100</x:v>
@@ -1955,10 +1955,10 @@
         <x:v>10113</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D15" s="3">
         <x:v>0</x:v>
@@ -1972,10 +1972,10 @@
         <x:v>10114</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D16" s="3">
         <x:v>0</x:v>
@@ -1989,10 +1989,10 @@
         <x:v>10115</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D17" s="3">
         <x:v>50</x:v>
@@ -2006,10 +2006,10 @@
         <x:v>10116</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D18" s="3">
         <x:v>100</x:v>
@@ -2023,10 +2023,10 @@
         <x:v>10117</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D19" s="3">
         <x:v>0</x:v>
@@ -2040,10 +2040,10 @@
         <x:v>10118</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D20" s="3">
         <x:v>0</x:v>
@@ -2057,10 +2057,10 @@
         <x:v>10119</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D21" s="3">
         <x:v>50</x:v>
@@ -2074,10 +2074,10 @@
         <x:v>10120</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D22" s="3">
         <x:v>100</x:v>
@@ -2091,10 +2091,10 @@
         <x:v>10121</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D23" s="3">
         <x:v>0</x:v>
@@ -2108,10 +2108,10 @@
         <x:v>10122</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D24" s="3">
         <x:v>50</x:v>
@@ -2125,10 +2125,10 @@
         <x:v>10123</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D25" s="3">
         <x:v>100</x:v>
@@ -2142,10 +2142,10 @@
         <x:v>10201</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D26" s="3">
         <x:v>0</x:v>
@@ -2159,10 +2159,10 @@
         <x:v>10202</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D27" s="3">
         <x:v>0</x:v>
@@ -2176,10 +2176,10 @@
         <x:v>10203</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D28" s="3">
         <x:v>50</x:v>
@@ -2193,10 +2193,10 @@
         <x:v>10204</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D29" s="3">
         <x:v>100</x:v>
@@ -2210,10 +2210,10 @@
         <x:v>10205</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D30" s="3">
         <x:v>200</x:v>
@@ -2227,10 +2227,10 @@
         <x:v>10301</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D31" s="3">
         <x:v>0</x:v>
@@ -2244,10 +2244,10 @@
         <x:v>10302</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D32" s="3">
         <x:v>0</x:v>
@@ -2261,10 +2261,10 @@
         <x:v>10303</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D33" s="3">
         <x:v>50</x:v>
@@ -2278,10 +2278,10 @@
         <x:v>10304</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D34" s="3">
         <x:v>100</x:v>
@@ -2295,10 +2295,10 @@
         <x:v>10305</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D35" s="3">
         <x:v>200</x:v>
@@ -2312,10 +2312,10 @@
         <x:v>10306</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D36" s="3">
         <x:v>0</x:v>
@@ -2329,10 +2329,10 @@
         <x:v>10307</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D37" s="3">
         <x:v>50</x:v>
@@ -2346,10 +2346,10 @@
         <x:v>10308</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D38" s="3">
         <x:v>100</x:v>
@@ -2363,10 +2363,10 @@
         <x:v>10309</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D39" s="3">
         <x:v>200</x:v>
@@ -2380,10 +2380,10 @@
         <x:v>10310</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D40" s="3">
         <x:v>0</x:v>
@@ -2397,10 +2397,10 @@
         <x:v>10311</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D41" s="3">
         <x:v>50</x:v>
@@ -2414,10 +2414,10 @@
         <x:v>10312</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D42" s="3">
         <x:v>100</x:v>
@@ -2431,10 +2431,10 @@
         <x:v>10313</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D43" s="3">
         <x:v>200</x:v>
@@ -2448,10 +2448,10 @@
         <x:v>10401</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D44" s="3">
         <x:v>0</x:v>
@@ -2465,10 +2465,10 @@
         <x:v>10402</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D45" s="3">
         <x:v>0</x:v>
@@ -2482,10 +2482,10 @@
         <x:v>10403</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D46" s="3">
         <x:v>50</x:v>
@@ -2499,10 +2499,10 @@
         <x:v>10404</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D47" s="3">
         <x:v>100</x:v>
@@ -2516,10 +2516,10 @@
         <x:v>10405</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D48" s="3">
         <x:v>200</x:v>
@@ -2533,10 +2533,10 @@
         <x:v>10406</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D49" s="3">
         <x:v>0</x:v>
@@ -2550,10 +2550,10 @@
         <x:v>10407</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D50" s="3">
         <x:v>50</x:v>
@@ -2567,10 +2567,10 @@
         <x:v>10408</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D51" s="3">
         <x:v>100</x:v>
@@ -2584,10 +2584,10 @@
         <x:v>10409</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D52" s="3">
         <x:v>200</x:v>
@@ -2601,10 +2601,10 @@
         <x:v>10410</x:v>
       </x:c>
       <x:c r="B53" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D53" s="3">
         <x:v>0</x:v>
@@ -2618,10 +2618,10 @@
         <x:v>10411</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D54" s="3">
         <x:v>50</x:v>
@@ -2635,10 +2635,10 @@
         <x:v>10412</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D55" s="3">
         <x:v>100</x:v>
@@ -2652,10 +2652,10 @@
         <x:v>10413</x:v>
       </x:c>
       <x:c r="B56" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D56" s="3">
         <x:v>200</x:v>
@@ -2669,10 +2669,10 @@
         <x:v>10501</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D57" s="3">
         <x:v>0</x:v>
@@ -2686,10 +2686,10 @@
         <x:v>10502</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D58" s="3">
         <x:v>0</x:v>
@@ -2703,10 +2703,10 @@
         <x:v>10503</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D59" s="3">
         <x:v>50</x:v>
@@ -2720,10 +2720,10 @@
         <x:v>10504</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D60" s="3">
         <x:v>100</x:v>
@@ -2737,10 +2737,10 @@
         <x:v>10505</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D61" s="3">
         <x:v>200</x:v>
@@ -2754,10 +2754,10 @@
         <x:v>10506</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D62" s="3">
         <x:v>0</x:v>
@@ -2771,10 +2771,10 @@
         <x:v>10507</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D63" s="3">
         <x:v>50</x:v>
@@ -2788,10 +2788,10 @@
         <x:v>10508</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D64" s="3">
         <x:v>100</x:v>
@@ -2805,10 +2805,10 @@
         <x:v>10509</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D65" s="3">
         <x:v>200</x:v>
@@ -2822,10 +2822,10 @@
         <x:v>10601</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D66" s="3">
         <x:v>0</x:v>
@@ -2839,10 +2839,10 @@
         <x:v>10602</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D67" s="3">
         <x:v>0</x:v>
@@ -2856,10 +2856,10 @@
         <x:v>10603</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D68" s="3">
         <x:v>50</x:v>
@@ -2873,10 +2873,10 @@
         <x:v>10604</x:v>
       </x:c>
       <x:c r="B69" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D69" s="3">
         <x:v>100</x:v>
@@ -2890,10 +2890,10 @@
         <x:v>10605</x:v>
       </x:c>
       <x:c r="B70" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D70" s="3">
         <x:v>200</x:v>
@@ -2907,10 +2907,10 @@
         <x:v>10606</x:v>
       </x:c>
       <x:c r="B71" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D71" s="3">
         <x:v>0</x:v>
@@ -2924,10 +2924,10 @@
         <x:v>10607</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D72" s="3">
         <x:v>50</x:v>
@@ -2941,10 +2941,10 @@
         <x:v>10608</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D73" s="3">
         <x:v>100</x:v>
@@ -2958,10 +2958,10 @@
         <x:v>10609</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D74" s="3">
         <x:v>200</x:v>
@@ -2975,10 +2975,10 @@
         <x:v>10701</x:v>
       </x:c>
       <x:c r="B75" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D75" s="3">
         <x:v>0</x:v>
@@ -2992,10 +2992,10 @@
         <x:v>10702</x:v>
       </x:c>
       <x:c r="B76" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D76" s="3">
         <x:v>0</x:v>
@@ -3009,10 +3009,10 @@
         <x:v>10703</x:v>
       </x:c>
       <x:c r="B77" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D77" s="3">
         <x:v>50</x:v>
@@ -3026,10 +3026,10 @@
         <x:v>10704</x:v>
       </x:c>
       <x:c r="B78" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D78" s="3">
         <x:v>100</x:v>
@@ -3043,10 +3043,10 @@
         <x:v>10705</x:v>
       </x:c>
       <x:c r="B79" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D79" s="3">
         <x:v>200</x:v>
@@ -3060,10 +3060,10 @@
         <x:v>10706</x:v>
       </x:c>
       <x:c r="B80" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D80" s="3">
         <x:v>0</x:v>
@@ -3077,10 +3077,10 @@
         <x:v>10707</x:v>
       </x:c>
       <x:c r="B81" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D81" s="3">
         <x:v>50</x:v>
@@ -3094,10 +3094,10 @@
         <x:v>10708</x:v>
       </x:c>
       <x:c r="B82" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D82" s="3">
         <x:v>100</x:v>
@@ -3111,10 +3111,10 @@
         <x:v>10709</x:v>
       </x:c>
       <x:c r="B83" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D83" s="3">
         <x:v>200</x:v>
@@ -3128,10 +3128,10 @@
         <x:v>10801</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D84" s="3">
         <x:v>0</x:v>
@@ -3145,10 +3145,10 @@
         <x:v>10802</x:v>
       </x:c>
       <x:c r="B85" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D85" s="3">
         <x:v>0</x:v>
@@ -3162,10 +3162,10 @@
         <x:v>10803</x:v>
       </x:c>
       <x:c r="B86" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D86" s="3">
         <x:v>50</x:v>
@@ -3179,10 +3179,10 @@
         <x:v>10804</x:v>
       </x:c>
       <x:c r="B87" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D87" s="3">
         <x:v>100</x:v>
@@ -3196,10 +3196,10 @@
         <x:v>10805</x:v>
       </x:c>
       <x:c r="B88" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C88" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D88" s="3">
         <x:v>200</x:v>
@@ -3213,10 +3213,10 @@
         <x:v>10901</x:v>
       </x:c>
       <x:c r="B89" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C89" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D89" s="3">
         <x:v>0</x:v>
@@ -3230,10 +3230,10 @@
         <x:v>10902</x:v>
       </x:c>
       <x:c r="B90" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C90" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D90" s="3">
         <x:v>0</x:v>
@@ -3247,10 +3247,10 @@
         <x:v>10903</x:v>
       </x:c>
       <x:c r="B91" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C91" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D91" s="3">
         <x:v>50</x:v>
@@ -3264,10 +3264,10 @@
         <x:v>10904</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C92" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D92" s="3">
         <x:v>100</x:v>
@@ -3281,10 +3281,10 @@
         <x:v>10905</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D93" s="3">
         <x:v>200</x:v>
@@ -3298,10 +3298,10 @@
         <x:v>10906</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D94" s="3">
         <x:v>0</x:v>
@@ -3315,10 +3315,10 @@
         <x:v>10907</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D95" s="3">
         <x:v>50</x:v>
@@ -3332,10 +3332,10 @@
         <x:v>10908</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D96" s="3">
         <x:v>100</x:v>
@@ -3349,10 +3349,10 @@
         <x:v>10909</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C97" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D97" s="3">
         <x:v>200</x:v>
@@ -3366,10 +3366,10 @@
         <x:v>11001</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C98" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D98" s="3">
         <x:v>0</x:v>
@@ -3383,10 +3383,10 @@
         <x:v>11002</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C99" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D99" s="3">
         <x:v>0</x:v>
@@ -3400,10 +3400,10 @@
         <x:v>11003</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C100" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D100" s="3">
         <x:v>50</x:v>
@@ -3417,10 +3417,10 @@
         <x:v>11004</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C101" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D101" s="3">
         <x:v>100</x:v>
@@ -3434,10 +3434,10 @@
         <x:v>11005</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C102" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D102" s="3">
         <x:v>200</x:v>
@@ -3451,10 +3451,10 @@
         <x:v>11006</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C103" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D103" s="3">
         <x:v>0</x:v>
@@ -3468,10 +3468,10 @@
         <x:v>11007</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C104" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D104" s="3">
         <x:v>50</x:v>
@@ -3485,10 +3485,10 @@
         <x:v>11008</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C105" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D105" s="3">
         <x:v>100</x:v>
@@ -3502,10 +3502,10 @@
         <x:v>11009</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C106" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D106" s="3">
         <x:v>200</x:v>
@@ -3519,10 +3519,10 @@
         <x:v>11010</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C107" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D107" s="3">
         <x:v>0</x:v>
@@ -3536,10 +3536,10 @@
         <x:v>11011</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D108" s="3">
         <x:v>50</x:v>
@@ -3553,10 +3553,10 @@
         <x:v>11012</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C109" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D109" s="3">
         <x:v>100</x:v>
@@ -3570,10 +3570,10 @@
         <x:v>11013</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C110" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D110" s="3">
         <x:v>200</x:v>
@@ -3587,10 +3587,10 @@
         <x:v>11101</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C111" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D111" s="3">
         <x:v>0</x:v>
@@ -3604,10 +3604,10 @@
         <x:v>11102</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C112" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D112" s="3">
         <x:v>0</x:v>
@@ -3621,10 +3621,10 @@
         <x:v>11103</x:v>
       </x:c>
       <x:c r="B113" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C113" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D113" s="3">
         <x:v>50</x:v>
@@ -3638,10 +3638,10 @@
         <x:v>11104</x:v>
       </x:c>
       <x:c r="B114" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D114" s="3">
         <x:v>100</x:v>
@@ -3655,10 +3655,10 @@
         <x:v>11105</x:v>
       </x:c>
       <x:c r="B115" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C115" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D115" s="3">
         <x:v>200</x:v>
@@ -3672,10 +3672,10 @@
         <x:v>11201</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D116" s="3">
         <x:v>0</x:v>
@@ -3689,10 +3689,10 @@
         <x:v>11202</x:v>
       </x:c>
       <x:c r="B117" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D117" s="3">
         <x:v>0</x:v>
@@ -3706,10 +3706,10 @@
         <x:v>11203</x:v>
       </x:c>
       <x:c r="B118" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D118" s="3">
         <x:v>50</x:v>
@@ -3723,10 +3723,10 @@
         <x:v>11204</x:v>
       </x:c>
       <x:c r="B119" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D119" s="3">
         <x:v>100</x:v>
@@ -3740,10 +3740,10 @@
         <x:v>11205</x:v>
       </x:c>
       <x:c r="B120" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D120" s="3">
         <x:v>200</x:v>
@@ -3757,10 +3757,10 @@
         <x:v>11301</x:v>
       </x:c>
       <x:c r="B121" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C121" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D121" s="3">
         <x:v>0</x:v>
@@ -3774,10 +3774,10 @@
         <x:v>11302</x:v>
       </x:c>
       <x:c r="B122" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C122" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D122" s="3">
         <x:v>0</x:v>
@@ -3791,10 +3791,10 @@
         <x:v>11303</x:v>
       </x:c>
       <x:c r="B123" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C123" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D123" s="3">
         <x:v>50</x:v>
@@ -3808,10 +3808,10 @@
         <x:v>11304</x:v>
       </x:c>
       <x:c r="B124" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C124" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D124" s="3">
         <x:v>100</x:v>
@@ -3825,10 +3825,10 @@
         <x:v>11305</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D125" s="3">
         <x:v>200</x:v>
@@ -3842,10 +3842,10 @@
         <x:v>11306</x:v>
       </x:c>
       <x:c r="B126" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C126" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D126" s="3">
         <x:v>0</x:v>
@@ -3859,10 +3859,10 @@
         <x:v>11307</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C127" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D127" s="3">
         <x:v>50</x:v>
@@ -3876,10 +3876,10 @@
         <x:v>11308</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C128" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D128" s="3">
         <x:v>100</x:v>
@@ -3893,10 +3893,10 @@
         <x:v>11309</x:v>
       </x:c>
       <x:c r="B129" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C129" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D129" s="3">
         <x:v>200</x:v>
@@ -3910,10 +3910,10 @@
         <x:v>11401</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C130" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D130" s="3">
         <x:v>0</x:v>
@@ -3927,10 +3927,10 @@
         <x:v>11402</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C131" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D131" s="3">
         <x:v>0</x:v>
@@ -3944,10 +3944,10 @@
         <x:v>11403</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C132" s="3" t="s">
-        <x:v>266</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D132" s="3">
         <x:v>50</x:v>
@@ -3961,10 +3961,10 @@
         <x:v>11404</x:v>
       </x:c>
       <x:c r="B133" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C133" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D133" s="3">
         <x:v>100</x:v>
@@ -3978,10 +3978,10 @@
         <x:v>11405</x:v>
       </x:c>
       <x:c r="B134" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C134" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D134" s="3">
         <x:v>200</x:v>
@@ -3995,10 +3995,10 @@
         <x:v>11406</x:v>
       </x:c>
       <x:c r="B135" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C135" s="3" t="s">
-        <x:v>269</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D135" s="3">
         <x:v>0</x:v>
@@ -4012,10 +4012,10 @@
         <x:v>11407</x:v>
       </x:c>
       <x:c r="B136" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C136" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D136" s="3">
         <x:v>50</x:v>
@@ -4029,10 +4029,10 @@
         <x:v>11408</x:v>
       </x:c>
       <x:c r="B137" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C137" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D137" s="3">
         <x:v>100</x:v>
@@ -4046,10 +4046,10 @@
         <x:v>11409</x:v>
       </x:c>
       <x:c r="B138" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C138" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D138" s="3">
         <x:v>200</x:v>

--- a/Design/DataTable/UpgradeCard.xlsx
+++ b/Design/DataTable/UpgradeCard.xlsx
@@ -19,831 +19,801 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="275">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
+  <x:si>
+    <x:t>독 타워 사거리 1 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 50% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속), 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack + 150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 10% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 1&lt;c&gt; 녹색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 10 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 10000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 20% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 3 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붕괴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
+  </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
   </x:si>
   <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
   </x:si>
   <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
+    <x:t>대포 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLDRS-95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 5% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 II</x:t>
   </x:si>
   <x:si>
     <x:t>단단한 벽 II</x:t>
   </x:si>
   <x:si>
-    <x:t>채굴 속도 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
+    <x:t>포이즌 브레스 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
   </x:si>
   <x:si>
     <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
   </x:si>
   <x:si>
+    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
     <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
   </x:si>
   <x:si>
+    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 5&lt;c&gt; 녹색보석타워의 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
     <x:t>미사일 타워의 Attack + 2000, 미사일 타워의 Speed + 1</x:t>
   </x:si>
   <x:si>
-    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 속도 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워</x:t>
+    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 5&lt;c&gt; 적색보석타워의 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 50&lt;c&gt; 적색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 III</x:t>
   </x:si>
   <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
-    <x:t>죽음의 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLDRS-95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 5% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 1&lt;c&gt; 녹색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이퀄라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 전기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플라즈마 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 폭격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 라이트닝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트닝 필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레임 헤이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 2</x:t>
   </x:si>
   <x:si>
     <x:t>독 타워 Ability 피해 +10</x:t>
   </x:si>
   <x:si>
-    <x:t>레이저타워 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +1</x:t>
+    <x:t>미사일 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 75</x:t>
   </x:si>
   <x:si>
     <x:t>녹색보석타워 Range + 2</x:t>
   </x:si>
   <x:si>
+    <x:t>대포 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
     <x:t>독 타워 Ability 피해 +3</x:t>
   </x:si>
   <x:si>
-    <x:t>대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 1</x:t>
+    <x:t>개틀링건 타워의 Attack + 5</x:t>
   </x:si>
   <x:si>
     <x:t>대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 5&lt;c&gt; 녹색보석타워의 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 전기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트닝 필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플라즈마 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 라이트닝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 폭격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이퀄라이저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레임 헤이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 50% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 20% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 10 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 10% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 10000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 3 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채굴 타워의 가격 - 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>붕괴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속), 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack + 150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 50&lt;c&gt; 적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 5&lt;c&gt; 적색보석타워의 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -851,126 +821,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="7">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1700,8 +1580,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E143"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C128" activeCellId="0" sqref="C128:C128"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D22" activeCellId="0" sqref="D22:D22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -1714,36 +1594,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" ht="16.399999999999999">
@@ -1751,10 +1631,10 @@
         <x:v>10101</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>0</x:v>
@@ -1768,10 +1648,10 @@
         <x:v>10102</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>0</x:v>
@@ -1785,10 +1665,10 @@
         <x:v>10103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>0</x:v>
@@ -1802,10 +1682,10 @@
         <x:v>10104</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>50</x:v>
@@ -1819,10 +1699,10 @@
         <x:v>10105</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>100</x:v>
@@ -1836,10 +1716,10 @@
         <x:v>10106</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>0</x:v>
@@ -1853,10 +1733,10 @@
         <x:v>10107</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>50</x:v>
@@ -1870,10 +1750,10 @@
         <x:v>10108</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>265</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>100</x:v>
@@ -1887,10 +1767,10 @@
         <x:v>10109</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>0</x:v>
@@ -1904,10 +1784,10 @@
         <x:v>10110</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>0</x:v>
@@ -1921,10 +1801,10 @@
         <x:v>10111</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>50</x:v>
@@ -1938,10 +1818,10 @@
         <x:v>10112</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>100</x:v>
@@ -1955,10 +1835,10 @@
         <x:v>10113</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="3">
         <x:v>0</x:v>
@@ -1972,10 +1852,10 @@
         <x:v>10114</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D16" s="3">
         <x:v>0</x:v>
@@ -1989,10 +1869,10 @@
         <x:v>10115</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D17" s="3">
         <x:v>50</x:v>
@@ -2006,10 +1886,10 @@
         <x:v>10116</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D18" s="3">
         <x:v>100</x:v>
@@ -2023,10 +1903,10 @@
         <x:v>10117</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D19" s="3">
         <x:v>0</x:v>
@@ -2040,10 +1920,10 @@
         <x:v>10118</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D20" s="3">
         <x:v>0</x:v>
@@ -2057,10 +1937,10 @@
         <x:v>10119</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="C21" s="3" t="s">
-        <x:v>266</x:v>
       </x:c>
       <x:c r="D21" s="3">
         <x:v>50</x:v>
@@ -2074,10 +1954,10 @@
         <x:v>10120</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="3">
         <x:v>100</x:v>
@@ -2091,10 +1971,10 @@
         <x:v>10121</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D23" s="3">
         <x:v>0</x:v>
@@ -2108,10 +1988,10 @@
         <x:v>10122</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D24" s="3">
         <x:v>50</x:v>
@@ -2125,10 +2005,10 @@
         <x:v>10123</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D25" s="3">
         <x:v>100</x:v>
@@ -2142,10 +2022,10 @@
         <x:v>10201</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D26" s="3">
         <x:v>0</x:v>
@@ -2159,10 +2039,10 @@
         <x:v>10202</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D27" s="3">
         <x:v>0</x:v>
@@ -2176,10 +2056,10 @@
         <x:v>10203</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D28" s="3">
         <x:v>50</x:v>
@@ -2193,10 +2073,10 @@
         <x:v>10204</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D29" s="3">
         <x:v>100</x:v>
@@ -2210,10 +2090,10 @@
         <x:v>10205</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D30" s="3">
         <x:v>200</x:v>
@@ -2227,10 +2107,10 @@
         <x:v>10301</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D31" s="3">
         <x:v>0</x:v>
@@ -2244,10 +2124,10 @@
         <x:v>10302</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="3">
         <x:v>0</x:v>
@@ -2261,7 +2141,7 @@
         <x:v>10303</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
         <x:v>13</x:v>
@@ -2278,10 +2158,10 @@
         <x:v>10304</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D34" s="3">
         <x:v>100</x:v>
@@ -2295,10 +2175,10 @@
         <x:v>10305</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D35" s="3">
         <x:v>200</x:v>
@@ -2312,10 +2192,10 @@
         <x:v>10306</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D36" s="3">
         <x:v>0</x:v>
@@ -2329,10 +2209,10 @@
         <x:v>10307</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D37" s="3">
         <x:v>50</x:v>
@@ -2346,10 +2226,10 @@
         <x:v>10308</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D38" s="3">
         <x:v>100</x:v>
@@ -2363,10 +2243,10 @@
         <x:v>10309</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D39" s="3">
         <x:v>200</x:v>
@@ -2380,10 +2260,10 @@
         <x:v>10310</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D40" s="3">
         <x:v>0</x:v>
@@ -2397,10 +2277,10 @@
         <x:v>10311</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D41" s="3">
         <x:v>50</x:v>
@@ -2414,10 +2294,10 @@
         <x:v>10312</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D42" s="3">
         <x:v>100</x:v>
@@ -2431,10 +2311,10 @@
         <x:v>10313</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D43" s="3">
         <x:v>200</x:v>
@@ -2448,10 +2328,10 @@
         <x:v>10401</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D44" s="3">
         <x:v>0</x:v>
@@ -2465,10 +2345,10 @@
         <x:v>10402</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D45" s="3">
         <x:v>0</x:v>
@@ -2482,10 +2362,10 @@
         <x:v>10403</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D46" s="3">
         <x:v>50</x:v>
@@ -2499,10 +2379,10 @@
         <x:v>10404</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D47" s="3">
         <x:v>100</x:v>
@@ -2516,10 +2396,10 @@
         <x:v>10405</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D48" s="3">
         <x:v>200</x:v>
@@ -2533,10 +2413,10 @@
         <x:v>10406</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D49" s="3">
         <x:v>0</x:v>
@@ -2550,10 +2430,10 @@
         <x:v>10407</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D50" s="3">
         <x:v>50</x:v>
@@ -2567,10 +2447,10 @@
         <x:v>10408</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D51" s="3">
         <x:v>100</x:v>
@@ -2584,10 +2464,10 @@
         <x:v>10409</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D52" s="3">
         <x:v>200</x:v>
@@ -2601,10 +2481,10 @@
         <x:v>10410</x:v>
       </x:c>
       <x:c r="B53" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D53" s="3">
         <x:v>0</x:v>
@@ -2618,10 +2498,10 @@
         <x:v>10411</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D54" s="3">
         <x:v>50</x:v>
@@ -2635,10 +2515,10 @@
         <x:v>10412</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D55" s="3">
         <x:v>100</x:v>
@@ -2652,10 +2532,10 @@
         <x:v>10413</x:v>
       </x:c>
       <x:c r="B56" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D56" s="3">
         <x:v>200</x:v>
@@ -2669,10 +2549,10 @@
         <x:v>10501</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D57" s="3">
         <x:v>0</x:v>
@@ -2686,10 +2566,10 @@
         <x:v>10502</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D58" s="3">
         <x:v>0</x:v>
@@ -2703,10 +2583,10 @@
         <x:v>10503</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D59" s="3">
         <x:v>50</x:v>
@@ -2720,10 +2600,10 @@
         <x:v>10504</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D60" s="3">
         <x:v>100</x:v>
@@ -2737,10 +2617,10 @@
         <x:v>10505</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>269</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D61" s="3">
         <x:v>200</x:v>
@@ -2754,10 +2634,10 @@
         <x:v>10506</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D62" s="3">
         <x:v>0</x:v>
@@ -2771,10 +2651,10 @@
         <x:v>10507</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D63" s="3">
         <x:v>50</x:v>
@@ -2788,10 +2668,10 @@
         <x:v>10508</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D64" s="3">
         <x:v>100</x:v>
@@ -2805,10 +2685,10 @@
         <x:v>10509</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D65" s="3">
         <x:v>200</x:v>
@@ -2822,10 +2702,10 @@
         <x:v>10601</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D66" s="3">
         <x:v>0</x:v>
@@ -2839,10 +2719,10 @@
         <x:v>10602</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D67" s="3">
         <x:v>0</x:v>
@@ -2856,10 +2736,10 @@
         <x:v>10603</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D68" s="3">
         <x:v>50</x:v>
@@ -2873,10 +2753,10 @@
         <x:v>10604</x:v>
       </x:c>
       <x:c r="B69" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D69" s="3">
         <x:v>100</x:v>
@@ -2890,10 +2770,10 @@
         <x:v>10605</x:v>
       </x:c>
       <x:c r="B70" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D70" s="3">
         <x:v>200</x:v>
@@ -2907,10 +2787,10 @@
         <x:v>10606</x:v>
       </x:c>
       <x:c r="B71" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D71" s="3">
         <x:v>0</x:v>
@@ -2924,10 +2804,10 @@
         <x:v>10607</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D72" s="3">
         <x:v>50</x:v>
@@ -2941,10 +2821,10 @@
         <x:v>10608</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D73" s="3">
         <x:v>100</x:v>
@@ -2958,10 +2838,10 @@
         <x:v>10609</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D74" s="3">
         <x:v>200</x:v>
@@ -2975,10 +2855,10 @@
         <x:v>10701</x:v>
       </x:c>
       <x:c r="B75" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D75" s="3">
         <x:v>0</x:v>
@@ -2992,10 +2872,10 @@
         <x:v>10702</x:v>
       </x:c>
       <x:c r="B76" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D76" s="3">
         <x:v>0</x:v>
@@ -3009,10 +2889,10 @@
         <x:v>10703</x:v>
       </x:c>
       <x:c r="B77" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D77" s="3">
         <x:v>50</x:v>
@@ -3026,10 +2906,10 @@
         <x:v>10704</x:v>
       </x:c>
       <x:c r="B78" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D78" s="3">
         <x:v>100</x:v>
@@ -3043,10 +2923,10 @@
         <x:v>10705</x:v>
       </x:c>
       <x:c r="B79" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D79" s="3">
         <x:v>200</x:v>
@@ -3060,10 +2940,10 @@
         <x:v>10706</x:v>
       </x:c>
       <x:c r="B80" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D80" s="3">
         <x:v>0</x:v>
@@ -3077,10 +2957,10 @@
         <x:v>10707</x:v>
       </x:c>
       <x:c r="B81" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D81" s="3">
         <x:v>50</x:v>
@@ -3094,10 +2974,10 @@
         <x:v>10708</x:v>
       </x:c>
       <x:c r="B82" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D82" s="3">
         <x:v>100</x:v>
@@ -3111,10 +2991,10 @@
         <x:v>10709</x:v>
       </x:c>
       <x:c r="B83" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D83" s="3">
         <x:v>200</x:v>
@@ -3128,10 +3008,10 @@
         <x:v>10801</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D84" s="3">
         <x:v>0</x:v>
@@ -3145,10 +3025,10 @@
         <x:v>10802</x:v>
       </x:c>
       <x:c r="B85" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D85" s="3">
         <x:v>0</x:v>
@@ -3162,10 +3042,10 @@
         <x:v>10803</x:v>
       </x:c>
       <x:c r="B86" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D86" s="3">
         <x:v>50</x:v>
@@ -3179,10 +3059,10 @@
         <x:v>10804</x:v>
       </x:c>
       <x:c r="B87" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D87" s="3">
         <x:v>100</x:v>
@@ -3196,10 +3076,10 @@
         <x:v>10805</x:v>
       </x:c>
       <x:c r="B88" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C88" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D88" s="3">
         <x:v>200</x:v>
@@ -3210,98 +3090,98 @@
     </x:row>
     <x:row r="89" spans="1:5" ht="16.399999999999999">
       <x:c r="A89" s="3">
-        <x:v>10901</x:v>
+        <x:v>10806</x:v>
       </x:c>
       <x:c r="B89" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C89" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D89" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E89" s="3">
-        <x:v>1</x:v>
+        <x:v>10801</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5" ht="16.399999999999999">
       <x:c r="A90" s="3">
-        <x:v>10902</x:v>
+        <x:v>10807</x:v>
       </x:c>
       <x:c r="B90" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C90" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D90" s="3">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E90" s="3">
-        <x:v>10901</x:v>
+        <x:v>10806</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5" ht="16.399999999999999">
       <x:c r="A91" s="3">
-        <x:v>10903</x:v>
+        <x:v>10808</x:v>
       </x:c>
       <x:c r="B91" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C91" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D91" s="3">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E91" s="3">
-        <x:v>10902</x:v>
+        <x:v>10807</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5" ht="16.399999999999999">
       <x:c r="A92" s="3">
-        <x:v>10904</x:v>
+        <x:v>10809</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C92" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D92" s="3">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E92" s="3">
-        <x:v>10903</x:v>
+        <x:v>10808</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5" ht="16.399999999999999">
       <x:c r="A93" s="3">
-        <x:v>10905</x:v>
+        <x:v>10901</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D93" s="3">
-        <x:v>200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E93" s="3">
-        <x:v>10904</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5" ht="16.399999999999999">
       <x:c r="A94" s="3">
-        <x:v>10906</x:v>
+        <x:v>10902</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D94" s="3">
         <x:v>0</x:v>
@@ -3312,27 +3192,27 @@
     </x:row>
     <x:row r="95" spans="1:5" ht="16.399999999999999">
       <x:c r="A95" s="3">
-        <x:v>10907</x:v>
+        <x:v>10903</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D95" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E95" s="3">
-        <x:v>10906</x:v>
+        <x:v>10902</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5" ht="16.399999999999999">
       <x:c r="A96" s="3">
-        <x:v>10908</x:v>
+        <x:v>10904</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
         <x:v>102</x:v>
@@ -3341,188 +3221,188 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E96" s="3">
-        <x:v>10907</x:v>
+        <x:v>10903</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5" ht="16.399999999999999">
       <x:c r="A97" s="3">
-        <x:v>10909</x:v>
+        <x:v>10905</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C97" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D97" s="3">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E97" s="3">
-        <x:v>10908</x:v>
+        <x:v>10904</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5" ht="16.399999999999999">
       <x:c r="A98" s="3">
-        <x:v>11001</x:v>
+        <x:v>10906</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C98" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D98" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E98" s="3">
-        <x:v>1</x:v>
+        <x:v>10901</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5" ht="16.399999999999999">
       <x:c r="A99" s="3">
-        <x:v>11002</x:v>
+        <x:v>10907</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C99" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D99" s="3">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E99" s="3">
-        <x:v>11001</x:v>
+        <x:v>10906</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5" ht="16.399999999999999">
       <x:c r="A100" s="3">
-        <x:v>11003</x:v>
+        <x:v>10908</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C100" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D100" s="3">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E100" s="3">
-        <x:v>11002</x:v>
+        <x:v>10907</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5" ht="16.399999999999999">
       <x:c r="A101" s="3">
-        <x:v>11004</x:v>
+        <x:v>10909</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C101" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D101" s="3">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E101" s="3">
-        <x:v>11003</x:v>
+        <x:v>10908</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5" ht="16.399999999999999">
       <x:c r="A102" s="3">
-        <x:v>11005</x:v>
+        <x:v>10910</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C102" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D102" s="3">
-        <x:v>200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E102" s="3">
-        <x:v>11004</x:v>
+        <x:v>10901</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5" ht="16.399999999999999">
       <x:c r="A103" s="3">
-        <x:v>11006</x:v>
+        <x:v>10911</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C103" s="3" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D103" s="3">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C103" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D103" s="3">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="E103" s="3">
-        <x:v>11001</x:v>
+        <x:v>10910</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5" ht="16.399999999999999">
       <x:c r="A104" s="3">
-        <x:v>11007</x:v>
+        <x:v>10912</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C104" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D104" s="3">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E104" s="3">
-        <x:v>11006</x:v>
+        <x:v>10911</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5" ht="16.399999999999999">
       <x:c r="A105" s="3">
-        <x:v>11008</x:v>
+        <x:v>10913</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C105" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D105" s="3">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E105" s="3">
-        <x:v>11007</x:v>
+        <x:v>10912</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5" ht="16.399999999999999">
       <x:c r="A106" s="3">
-        <x:v>11009</x:v>
+        <x:v>11001</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C106" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D106" s="3">
-        <x:v>200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E106" s="3">
-        <x:v>11008</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5" ht="16.399999999999999">
       <x:c r="A107" s="3">
-        <x:v>11010</x:v>
+        <x:v>11002</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C107" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D107" s="3">
         <x:v>0</x:v>
@@ -3533,53 +3413,53 @@
     </x:row>
     <x:row r="108" spans="1:5" ht="16.399999999999999">
       <x:c r="A108" s="3">
-        <x:v>11011</x:v>
+        <x:v>11003</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D108" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E108" s="3">
-        <x:v>11010</x:v>
+        <x:v>11002</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5" ht="16.399999999999999">
       <x:c r="A109" s="3">
-        <x:v>11012</x:v>
+        <x:v>11004</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C109" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D109" s="3">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E109" s="3">
-        <x:v>11011</x:v>
+        <x:v>11003</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5" ht="16.399999999999999">
       <x:c r="A110" s="3">
-        <x:v>11013</x:v>
+        <x:v>11005</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C110" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D110" s="3">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E110" s="3">
-        <x:v>11012</x:v>
+        <x:v>11004</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5" ht="16.399999999999999">
@@ -3587,10 +3467,10 @@
         <x:v>11101</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C111" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D111" s="3">
         <x:v>0</x:v>
@@ -3604,10 +3484,10 @@
         <x:v>11102</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C112" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D112" s="3">
         <x:v>0</x:v>
@@ -3621,10 +3501,10 @@
         <x:v>11103</x:v>
       </x:c>
       <x:c r="B113" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C113" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D113" s="3">
         <x:v>50</x:v>
@@ -3638,10 +3518,10 @@
         <x:v>11104</x:v>
       </x:c>
       <x:c r="B114" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D114" s="3">
         <x:v>100</x:v>
@@ -3655,10 +3535,10 @@
         <x:v>11105</x:v>
       </x:c>
       <x:c r="B115" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C115" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D115" s="3">
         <x:v>200</x:v>
@@ -3672,10 +3552,10 @@
         <x:v>11201</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D116" s="3">
         <x:v>0</x:v>
@@ -3689,10 +3569,10 @@
         <x:v>11202</x:v>
       </x:c>
       <x:c r="B117" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D117" s="3">
         <x:v>0</x:v>
@@ -3706,10 +3586,10 @@
         <x:v>11203</x:v>
       </x:c>
       <x:c r="B118" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D118" s="3">
         <x:v>50</x:v>
@@ -3723,10 +3603,10 @@
         <x:v>11204</x:v>
       </x:c>
       <x:c r="B119" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D119" s="3">
         <x:v>100</x:v>
@@ -3740,10 +3620,10 @@
         <x:v>11205</x:v>
       </x:c>
       <x:c r="B120" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D120" s="3">
         <x:v>200</x:v>
@@ -3754,98 +3634,98 @@
     </x:row>
     <x:row r="121" spans="1:5" ht="16.399999999999999">
       <x:c r="A121" s="3">
-        <x:v>11301</x:v>
+        <x:v>11206</x:v>
       </x:c>
       <x:c r="B121" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C121" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D121" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E121" s="3">
-        <x:v>1</x:v>
+        <x:v>11201</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5" ht="16.399999999999999">
       <x:c r="A122" s="3">
-        <x:v>11302</x:v>
+        <x:v>11207</x:v>
       </x:c>
       <x:c r="B122" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C122" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D122" s="3">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E122" s="3">
-        <x:v>11301</x:v>
+        <x:v>11206</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5" ht="16.399999999999999">
       <x:c r="A123" s="3">
-        <x:v>11303</x:v>
+        <x:v>11208</x:v>
       </x:c>
       <x:c r="B123" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C123" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D123" s="3">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E123" s="3">
-        <x:v>11302</x:v>
+        <x:v>11207</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5" ht="16.399999999999999">
       <x:c r="A124" s="3">
-        <x:v>11304</x:v>
+        <x:v>11209</x:v>
       </x:c>
       <x:c r="B124" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C124" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D124" s="3">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E124" s="3">
-        <x:v>11303</x:v>
+        <x:v>11208</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5" ht="16.399999999999999">
       <x:c r="A125" s="3">
-        <x:v>11305</x:v>
+        <x:v>11301</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D125" s="3">
-        <x:v>200</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E125" s="3">
-        <x:v>11304</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5" ht="16.399999999999999">
       <x:c r="A126" s="3">
-        <x:v>11306</x:v>
+        <x:v>11302</x:v>
       </x:c>
       <x:c r="B126" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C126" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D126" s="3">
         <x:v>0</x:v>
@@ -3856,206 +3736,121 @@
     </x:row>
     <x:row r="127" spans="1:5" ht="16.399999999999999">
       <x:c r="A127" s="3">
-        <x:v>11307</x:v>
+        <x:v>11303</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C127" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D127" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E127" s="3">
-        <x:v>11306</x:v>
+        <x:v>11302</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5" ht="16.399999999999999">
       <x:c r="A128" s="3">
-        <x:v>11308</x:v>
+        <x:v>11304</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C128" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D128" s="3">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E128" s="3">
-        <x:v>11307</x:v>
+        <x:v>11303</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5" ht="16.399999999999999">
       <x:c r="A129" s="3">
-        <x:v>11309</x:v>
+        <x:v>11305</x:v>
       </x:c>
       <x:c r="B129" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C129" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D129" s="3">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E129" s="3">
-        <x:v>11308</x:v>
+        <x:v>11304</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5" ht="16.399999999999999">
       <x:c r="A130" s="3">
-        <x:v>11401</x:v>
+        <x:v>11306</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C130" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D130" s="3">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E130" s="3">
-        <x:v>1</x:v>
+        <x:v>11301</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5" ht="16.399999999999999">
       <x:c r="A131" s="3">
-        <x:v>11402</x:v>
+        <x:v>11307</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C131" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D131" s="3">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E131" s="3">
-        <x:v>11401</x:v>
+        <x:v>11306</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5" ht="16.399999999999999">
       <x:c r="A132" s="3">
-        <x:v>11403</x:v>
+        <x:v>11308</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C132" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D132" s="3">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E132" s="3">
-        <x:v>11402</x:v>
+        <x:v>11307</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5" ht="16.399999999999999">
       <x:c r="A133" s="3">
-        <x:v>11404</x:v>
+        <x:v>11309</x:v>
       </x:c>
       <x:c r="B133" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C133" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D133" s="3">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E133" s="3">
-        <x:v>11403</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:5" ht="16.399999999999999">
-      <x:c r="A134" s="3">
-        <x:v>11405</x:v>
-      </x:c>
-      <x:c r="B134" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C134" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="D134" s="3">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E134" s="3">
-        <x:v>11404</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:5" ht="16.399999999999999">
-      <x:c r="A135" s="3">
-        <x:v>11406</x:v>
-      </x:c>
-      <x:c r="B135" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C135" s="3" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D135" s="3">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E135" s="3">
-        <x:v>11401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:5" ht="16.399999999999999">
-      <x:c r="A136" s="3">
-        <x:v>11407</x:v>
-      </x:c>
-      <x:c r="B136" s="3" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="C136" s="3" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D136" s="3">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E136" s="3">
-        <x:v>11406</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:5" ht="16.399999999999999">
-      <x:c r="A137" s="3">
-        <x:v>11408</x:v>
-      </x:c>
-      <x:c r="B137" s="3" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="C137" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D137" s="3">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E137" s="3">
-        <x:v>11407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:5" ht="16.399999999999999">
-      <x:c r="A138" s="3">
-        <x:v>11409</x:v>
-      </x:c>
-      <x:c r="B138" s="3" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="C138" s="3" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="D138" s="3">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E138" s="3">
-        <x:v>11408</x:v>
+        <x:v>11308</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:1">

--- a/Design/DataTable/UpgradeCard.xlsx
+++ b/Design/DataTable/UpgradeCard.xlsx
@@ -21,799 +21,799 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
   <x:si>
+    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 20% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 10 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 3 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 10% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 2000&lt;c&gt; 미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 라이트닝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레임 헤이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이퀄라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 폭격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 전기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트닝 필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플라즈마 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLDRS-95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 5% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붕괴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 10000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 50% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
     <x:t>독 타워 사거리 1 증가</x:t>
   </x:si>
   <x:si>
+    <x:t>모래시계 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 사거리 2 증가</x:t>
+  </x:si>
+  <x:si>
     <x:t>녹색보석타워에 대한 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>적이 50% 더 느려짐</x:t>
+    <x:t>Xp_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 해당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워의 Range + 5&lt;c&gt; 적색보석타워의 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Range + 5&lt;c&gt; 녹색보석타워의 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적색보석타워 Ability + 50&lt;c&gt; 적색보석타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹색보석타워 Ability + 1&lt;c&gt; 녹색보석타워의 Range + 2</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
   </x:si>
   <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속), 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
     <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack + 150</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
   </x:si>
   <x:si>
-    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 10% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 1&lt;c&gt; 녹색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가, 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 해당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 해당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 II</x:t>
   </x:si>
   <x:si>
     <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
   </x:si>
   <x:si>
-    <x:t>적색보석타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 10 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 10000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 20% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 사거리 3 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>붕괴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Ability + 0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 20</x:t>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
   </x:si>
   <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
-  </x:si>
-  <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
   </x:si>
   <x:si>
-    <x:t>대포 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLDRS-95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 5% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 5&lt;c&gt; 녹색보석타워의 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 2000, 미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 5&lt;c&gt; 적색보석타워의 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 50&lt;c&gt; 적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이퀄라이저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 전기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플라즈마 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 폭격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 라이트닝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트닝 필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레임 헤이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적색보석타워 Ability + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹색보석타워 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 200</x:t>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속)&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1580,8 +1580,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E143"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D22" activeCellId="0" sqref="D22:D22"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E133" activeCellId="0" sqref="E133:E133"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -1594,36 +1594,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5" ht="16.399999999999999">
@@ -1631,10 +1631,10 @@
         <x:v>10101</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>0</x:v>
@@ -1648,10 +1648,10 @@
         <x:v>10102</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>0</x:v>
@@ -1665,10 +1665,10 @@
         <x:v>10103</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>0</x:v>
@@ -1682,10 +1682,10 @@
         <x:v>10104</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>50</x:v>
@@ -1699,10 +1699,10 @@
         <x:v>10105</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>100</x:v>
@@ -1716,10 +1716,10 @@
         <x:v>10106</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>0</x:v>
@@ -1733,10 +1733,10 @@
         <x:v>10107</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>50</x:v>
@@ -1750,10 +1750,10 @@
         <x:v>10108</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>100</x:v>
@@ -1767,10 +1767,10 @@
         <x:v>10109</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>0</x:v>
@@ -1784,10 +1784,10 @@
         <x:v>10110</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>0</x:v>
@@ -1801,10 +1801,10 @@
         <x:v>10111</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>50</x:v>
@@ -1818,10 +1818,10 @@
         <x:v>10112</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>100</x:v>
@@ -1835,10 +1835,10 @@
         <x:v>10113</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D15" s="3">
         <x:v>0</x:v>
@@ -1852,10 +1852,10 @@
         <x:v>10114</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D16" s="3">
         <x:v>0</x:v>
@@ -1869,10 +1869,10 @@
         <x:v>10115</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D17" s="3">
         <x:v>50</x:v>
@@ -1886,10 +1886,10 @@
         <x:v>10116</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D18" s="3">
         <x:v>100</x:v>
@@ -1903,10 +1903,10 @@
         <x:v>10117</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D19" s="3">
         <x:v>0</x:v>
@@ -1920,10 +1920,10 @@
         <x:v>10118</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D20" s="3">
         <x:v>0</x:v>
@@ -1937,10 +1937,10 @@
         <x:v>10119</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D21" s="3">
         <x:v>50</x:v>
@@ -1954,10 +1954,10 @@
         <x:v>10120</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D22" s="3">
         <x:v>100</x:v>
@@ -1971,10 +1971,10 @@
         <x:v>10121</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D23" s="3">
         <x:v>0</x:v>
@@ -1988,10 +1988,10 @@
         <x:v>10122</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D24" s="3">
         <x:v>50</x:v>
@@ -2005,10 +2005,10 @@
         <x:v>10123</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D25" s="3">
         <x:v>100</x:v>
@@ -2022,10 +2022,10 @@
         <x:v>10201</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D26" s="3">
         <x:v>0</x:v>
@@ -2039,10 +2039,10 @@
         <x:v>10202</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D27" s="3">
         <x:v>0</x:v>
@@ -2056,10 +2056,10 @@
         <x:v>10203</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D28" s="3">
         <x:v>50</x:v>
@@ -2073,10 +2073,10 @@
         <x:v>10204</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="3">
         <x:v>100</x:v>
@@ -2090,10 +2090,10 @@
         <x:v>10205</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D30" s="3">
         <x:v>200</x:v>
@@ -2107,10 +2107,10 @@
         <x:v>10301</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D31" s="3">
         <x:v>0</x:v>
@@ -2124,10 +2124,10 @@
         <x:v>10302</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D32" s="3">
         <x:v>0</x:v>
@@ -2141,10 +2141,10 @@
         <x:v>10303</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D33" s="3">
         <x:v>50</x:v>
@@ -2158,10 +2158,10 @@
         <x:v>10304</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D34" s="3">
         <x:v>100</x:v>
@@ -2175,10 +2175,10 @@
         <x:v>10305</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D35" s="3">
         <x:v>200</x:v>
@@ -2192,10 +2192,10 @@
         <x:v>10306</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D36" s="3">
         <x:v>0</x:v>
@@ -2209,10 +2209,10 @@
         <x:v>10307</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D37" s="3">
         <x:v>50</x:v>
@@ -2226,10 +2226,10 @@
         <x:v>10308</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D38" s="3">
         <x:v>100</x:v>
@@ -2243,10 +2243,10 @@
         <x:v>10309</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D39" s="3">
         <x:v>200</x:v>
@@ -2260,10 +2260,10 @@
         <x:v>10310</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D40" s="3">
         <x:v>0</x:v>
@@ -2277,10 +2277,10 @@
         <x:v>10311</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D41" s="3">
         <x:v>50</x:v>
@@ -2294,10 +2294,10 @@
         <x:v>10312</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D42" s="3">
         <x:v>100</x:v>
@@ -2311,10 +2311,10 @@
         <x:v>10313</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D43" s="3">
         <x:v>200</x:v>
@@ -2328,10 +2328,10 @@
         <x:v>10401</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D44" s="3">
         <x:v>0</x:v>
@@ -2345,10 +2345,10 @@
         <x:v>10402</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D45" s="3">
         <x:v>0</x:v>
@@ -2362,10 +2362,10 @@
         <x:v>10403</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D46" s="3">
         <x:v>50</x:v>
@@ -2379,10 +2379,10 @@
         <x:v>10404</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D47" s="3">
         <x:v>100</x:v>
@@ -2396,10 +2396,10 @@
         <x:v>10405</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D48" s="3">
         <x:v>200</x:v>
@@ -2413,10 +2413,10 @@
         <x:v>10406</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D49" s="3">
         <x:v>0</x:v>
@@ -2430,10 +2430,10 @@
         <x:v>10407</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D50" s="3">
         <x:v>50</x:v>
@@ -2447,10 +2447,10 @@
         <x:v>10408</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="3">
         <x:v>100</x:v>
@@ -2464,10 +2464,10 @@
         <x:v>10409</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D52" s="3">
         <x:v>200</x:v>
@@ -2481,10 +2481,10 @@
         <x:v>10410</x:v>
       </x:c>
       <x:c r="B53" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D53" s="3">
         <x:v>0</x:v>
@@ -2498,10 +2498,10 @@
         <x:v>10411</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D54" s="3">
         <x:v>50</x:v>
@@ -2515,10 +2515,10 @@
         <x:v>10412</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D55" s="3">
         <x:v>100</x:v>
@@ -2532,10 +2532,10 @@
         <x:v>10413</x:v>
       </x:c>
       <x:c r="B56" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D56" s="3">
         <x:v>200</x:v>
@@ -2549,10 +2549,10 @@
         <x:v>10501</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D57" s="3">
         <x:v>0</x:v>
@@ -2566,10 +2566,10 @@
         <x:v>10502</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D58" s="3">
         <x:v>0</x:v>
@@ -2583,10 +2583,10 @@
         <x:v>10503</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D59" s="3">
         <x:v>50</x:v>
@@ -2600,10 +2600,10 @@
         <x:v>10504</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D60" s="3">
         <x:v>100</x:v>
@@ -2617,10 +2617,10 @@
         <x:v>10505</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D61" s="3">
         <x:v>200</x:v>
@@ -2634,10 +2634,10 @@
         <x:v>10506</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D62" s="3">
         <x:v>0</x:v>
@@ -2651,10 +2651,10 @@
         <x:v>10507</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D63" s="3">
         <x:v>50</x:v>
@@ -2668,10 +2668,10 @@
         <x:v>10508</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D64" s="3">
         <x:v>100</x:v>
@@ -2685,10 +2685,10 @@
         <x:v>10509</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D65" s="3">
         <x:v>200</x:v>
@@ -2702,10 +2702,10 @@
         <x:v>10601</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D66" s="3">
         <x:v>0</x:v>
@@ -2719,10 +2719,10 @@
         <x:v>10602</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D67" s="3">
         <x:v>0</x:v>
@@ -2736,10 +2736,10 @@
         <x:v>10603</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D68" s="3">
         <x:v>50</x:v>
@@ -2753,10 +2753,10 @@
         <x:v>10604</x:v>
       </x:c>
       <x:c r="B69" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D69" s="3">
         <x:v>100</x:v>
@@ -2770,10 +2770,10 @@
         <x:v>10605</x:v>
       </x:c>
       <x:c r="B70" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D70" s="3">
         <x:v>200</x:v>
@@ -2787,10 +2787,10 @@
         <x:v>10606</x:v>
       </x:c>
       <x:c r="B71" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D71" s="3">
         <x:v>0</x:v>
@@ -2804,10 +2804,10 @@
         <x:v>10607</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D72" s="3">
         <x:v>50</x:v>
@@ -2821,10 +2821,10 @@
         <x:v>10608</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D73" s="3">
         <x:v>100</x:v>
@@ -2838,10 +2838,10 @@
         <x:v>10609</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D74" s="3">
         <x:v>200</x:v>
@@ -2855,10 +2855,10 @@
         <x:v>10701</x:v>
       </x:c>
       <x:c r="B75" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D75" s="3">
         <x:v>0</x:v>
@@ -2872,10 +2872,10 @@
         <x:v>10702</x:v>
       </x:c>
       <x:c r="B76" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D76" s="3">
         <x:v>0</x:v>
@@ -2889,10 +2889,10 @@
         <x:v>10703</x:v>
       </x:c>
       <x:c r="B77" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D77" s="3">
         <x:v>50</x:v>
@@ -2906,10 +2906,10 @@
         <x:v>10704</x:v>
       </x:c>
       <x:c r="B78" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D78" s="3">
         <x:v>100</x:v>
@@ -2923,10 +2923,10 @@
         <x:v>10705</x:v>
       </x:c>
       <x:c r="B79" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D79" s="3">
         <x:v>200</x:v>
@@ -2940,10 +2940,10 @@
         <x:v>10706</x:v>
       </x:c>
       <x:c r="B80" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D80" s="3">
         <x:v>0</x:v>
@@ -2957,10 +2957,10 @@
         <x:v>10707</x:v>
       </x:c>
       <x:c r="B81" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D81" s="3">
         <x:v>50</x:v>
@@ -2974,10 +2974,10 @@
         <x:v>10708</x:v>
       </x:c>
       <x:c r="B82" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D82" s="3">
         <x:v>100</x:v>
@@ -2991,10 +2991,10 @@
         <x:v>10709</x:v>
       </x:c>
       <x:c r="B83" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D83" s="3">
         <x:v>200</x:v>
@@ -3008,10 +3008,10 @@
         <x:v>10801</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D84" s="3">
         <x:v>0</x:v>
@@ -3025,10 +3025,10 @@
         <x:v>10802</x:v>
       </x:c>
       <x:c r="B85" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D85" s="3">
         <x:v>0</x:v>
@@ -3042,10 +3042,10 @@
         <x:v>10803</x:v>
       </x:c>
       <x:c r="B86" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D86" s="3">
         <x:v>50</x:v>
@@ -3059,10 +3059,10 @@
         <x:v>10804</x:v>
       </x:c>
       <x:c r="B87" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D87" s="3">
         <x:v>100</x:v>
@@ -3076,10 +3076,10 @@
         <x:v>10805</x:v>
       </x:c>
       <x:c r="B88" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C88" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D88" s="3">
         <x:v>200</x:v>
@@ -3093,10 +3093,10 @@
         <x:v>10806</x:v>
       </x:c>
       <x:c r="B89" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C89" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D89" s="3">
         <x:v>0</x:v>
@@ -3110,10 +3110,10 @@
         <x:v>10807</x:v>
       </x:c>
       <x:c r="B90" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C90" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D90" s="3">
         <x:v>50</x:v>
@@ -3127,10 +3127,10 @@
         <x:v>10808</x:v>
       </x:c>
       <x:c r="B91" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C91" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D91" s="3">
         <x:v>100</x:v>
@@ -3144,10 +3144,10 @@
         <x:v>10809</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C92" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D92" s="3">
         <x:v>200</x:v>
@@ -3161,10 +3161,10 @@
         <x:v>10901</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D93" s="3">
         <x:v>0</x:v>
@@ -3178,10 +3178,10 @@
         <x:v>10902</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D94" s="3">
         <x:v>0</x:v>
@@ -3195,10 +3195,10 @@
         <x:v>10903</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D95" s="3">
         <x:v>50</x:v>
@@ -3212,10 +3212,10 @@
         <x:v>10904</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D96" s="3">
         <x:v>100</x:v>
@@ -3229,10 +3229,10 @@
         <x:v>10905</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C97" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D97" s="3">
         <x:v>200</x:v>
@@ -3246,10 +3246,10 @@
         <x:v>10906</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C98" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D98" s="3">
         <x:v>0</x:v>
@@ -3263,10 +3263,10 @@
         <x:v>10907</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C99" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D99" s="3">
         <x:v>50</x:v>
@@ -3280,10 +3280,10 @@
         <x:v>10908</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C100" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D100" s="3">
         <x:v>100</x:v>
@@ -3297,10 +3297,10 @@
         <x:v>10909</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C101" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D101" s="3">
         <x:v>200</x:v>
@@ -3314,10 +3314,10 @@
         <x:v>10910</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C102" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D102" s="3">
         <x:v>0</x:v>
@@ -3331,10 +3331,10 @@
         <x:v>10911</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C103" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D103" s="3">
         <x:v>50</x:v>
@@ -3348,10 +3348,10 @@
         <x:v>10912</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C104" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D104" s="3">
         <x:v>100</x:v>
@@ -3365,10 +3365,10 @@
         <x:v>10913</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C105" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D105" s="3">
         <x:v>200</x:v>
@@ -3382,10 +3382,10 @@
         <x:v>11001</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C106" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D106" s="3">
         <x:v>0</x:v>
@@ -3399,10 +3399,10 @@
         <x:v>11002</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C107" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D107" s="3">
         <x:v>0</x:v>
@@ -3416,10 +3416,10 @@
         <x:v>11003</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D108" s="3">
         <x:v>50</x:v>
@@ -3433,10 +3433,10 @@
         <x:v>11004</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C109" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D109" s="3">
         <x:v>100</x:v>
@@ -3450,10 +3450,10 @@
         <x:v>11005</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C110" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D110" s="3">
         <x:v>200</x:v>
@@ -3467,10 +3467,10 @@
         <x:v>11101</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C111" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D111" s="3">
         <x:v>0</x:v>
@@ -3484,10 +3484,10 @@
         <x:v>11102</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C112" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D112" s="3">
         <x:v>0</x:v>
@@ -3501,10 +3501,10 @@
         <x:v>11103</x:v>
       </x:c>
       <x:c r="B113" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C113" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D113" s="3">
         <x:v>50</x:v>
@@ -3518,10 +3518,10 @@
         <x:v>11104</x:v>
       </x:c>
       <x:c r="B114" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D114" s="3">
         <x:v>100</x:v>
@@ -3535,10 +3535,10 @@
         <x:v>11105</x:v>
       </x:c>
       <x:c r="B115" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C115" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D115" s="3">
         <x:v>200</x:v>
@@ -3552,10 +3552,10 @@
         <x:v>11201</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D116" s="3">
         <x:v>0</x:v>
@@ -3569,10 +3569,10 @@
         <x:v>11202</x:v>
       </x:c>
       <x:c r="B117" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D117" s="3">
         <x:v>0</x:v>
@@ -3586,10 +3586,10 @@
         <x:v>11203</x:v>
       </x:c>
       <x:c r="B118" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D118" s="3">
         <x:v>50</x:v>
@@ -3603,10 +3603,10 @@
         <x:v>11204</x:v>
       </x:c>
       <x:c r="B119" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D119" s="3">
         <x:v>100</x:v>
@@ -3620,10 +3620,10 @@
         <x:v>11205</x:v>
       </x:c>
       <x:c r="B120" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D120" s="3">
         <x:v>200</x:v>
@@ -3637,10 +3637,10 @@
         <x:v>11206</x:v>
       </x:c>
       <x:c r="B121" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C121" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D121" s="3">
         <x:v>0</x:v>
@@ -3654,10 +3654,10 @@
         <x:v>11207</x:v>
       </x:c>
       <x:c r="B122" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C122" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D122" s="3">
         <x:v>50</x:v>
@@ -3671,10 +3671,10 @@
         <x:v>11208</x:v>
       </x:c>
       <x:c r="B123" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C123" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D123" s="3">
         <x:v>100</x:v>
@@ -3688,10 +3688,10 @@
         <x:v>11209</x:v>
       </x:c>
       <x:c r="B124" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C124" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D124" s="3">
         <x:v>200</x:v>
@@ -3705,10 +3705,10 @@
         <x:v>11301</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D125" s="3">
         <x:v>0</x:v>
@@ -3722,10 +3722,10 @@
         <x:v>11302</x:v>
       </x:c>
       <x:c r="B126" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C126" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D126" s="3">
         <x:v>0</x:v>
@@ -3739,10 +3739,10 @@
         <x:v>11303</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C127" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D127" s="3">
         <x:v>50</x:v>
@@ -3756,10 +3756,10 @@
         <x:v>11304</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C128" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D128" s="3">
         <x:v>100</x:v>
@@ -3773,10 +3773,10 @@
         <x:v>11305</x:v>
       </x:c>
       <x:c r="B129" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C129" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D129" s="3">
         <x:v>200</x:v>
@@ -3790,10 +3790,10 @@
         <x:v>11306</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C130" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D130" s="3">
         <x:v>0</x:v>
@@ -3807,10 +3807,10 @@
         <x:v>11307</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C131" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D131" s="3">
         <x:v>50</x:v>
@@ -3824,10 +3824,10 @@
         <x:v>11308</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C132" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D132" s="3">
         <x:v>100</x:v>
@@ -3841,10 +3841,10 @@
         <x:v>11309</x:v>
       </x:c>
       <x:c r="B133" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C133" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D133" s="3">
         <x:v>200</x:v>

--- a/Design/DataTable/UpgradeCard.xlsx
+++ b/Design/DataTable/UpgradeCard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="328">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="329">
   <x:si>
     <x:t>대포 타워에 대한 설명</x:t>
   </x:si>
@@ -117,841 +117,886 @@
     <x:t>숙련된 대포 사용 IV</x:t>
   </x:si>
   <x:si>
+    <x:t>공격력버프타워 Ability + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속)&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.8 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.6 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.4 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율  +0.5 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율  +1.5 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 20% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 10000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붕괴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 15%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLDRS-95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 10% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 50% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율  +3 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율  +4 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +6 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +8 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +4 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율  +1 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율  +1 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격력버프타워의 Range + 5&lt;c&gt; 공격력버프타워의 Ability + 30</x:t>
   </x:si>
   <x:si>
+    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 2000&lt;c&gt; 미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 50&lt;c&gt; 공격력버프타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격속도버프타워 Ability + 1&lt;c&gt; 공격속도버프타워의 Range + 2</x:t>
   </x:si>
   <x:si>
-    <x:t>공격력버프타워 Ability + 50&lt;c&gt; 공격력버프타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 20% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 10000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 1</x:t>
+    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 5&lt;c&gt; 공격속도버프타워의 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack +150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 라이트닝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레임 헤이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플라즈마 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트닝 필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 전기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이퀄라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 폭격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>공격력버프타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +4 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +6 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +8 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>붕괴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율  +3 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율  +4 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율  +2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율  +1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율  +1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLDRS-95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 10% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 50% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 2000&lt;c&gt; 미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack +150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속)&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 5&lt;c&gt; 공격속도버프타워의 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 라이트닝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레임 헤이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플라즈마 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트닝 필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 전기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이퀄라이저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 폭격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Range + 1</x:t>
   </x:si>
   <x:si>
     <x:t>공격속도버프타워에 대한 설명</x:t>
@@ -960,49 +1005,7 @@
     <x:t>독 타워 Range + 2</x:t>
   </x:si>
   <x:si>
-    <x:t>독 타워 Range + 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>독 타워 Range + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.4 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율  +1.5 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율  +0.5 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.2 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.8 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈의 비율  +0.6 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1854,10 +1857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E165"/>
+  <x:dimension ref="A1:F165"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C7" activeCellId="0" sqref="C7:C7"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C157" activeCellId="0" sqref="C157:C157"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.550000000000001"/>
@@ -1866,51 +1869,58 @@
     <x:col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="70.69921875" style="1" customWidth="1"/>
     <x:col min="4" max="5" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" ht="16.399999999999999">
+    <x:row r="1" spans="1:6" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>315</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>317</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>316</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" ht="16.399999999999999">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5" ht="16.399999999999999">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" ht="16.399999999999999">
       <x:c r="A3" s="3">
         <x:v>10101</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>291</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>213</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>0</x:v>
@@ -1918,16 +1928,19 @@
       <x:c r="E3" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" ht="16.399999999999999">
+      <x:c r="F3" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" ht="16.399999999999999">
       <x:c r="A4" s="3">
         <x:v>10102</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>310</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>0</x:v>
@@ -1935,8 +1948,11 @@
       <x:c r="E4" s="3">
         <x:v>10101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" ht="16.399999999999999">
+      <x:c r="F4" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" ht="16.399999999999999">
       <x:c r="A5" s="3">
         <x:v>10103</x:v>
       </x:c>
@@ -1944,7 +1960,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>262</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>0</x:v>
@@ -1952,16 +1968,19 @@
       <x:c r="E5" s="3">
         <x:v>10101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" ht="16.399999999999999">
+      <x:c r="F5" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" ht="16.399999999999999">
       <x:c r="A6" s="3">
         <x:v>10104</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>282</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>217</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D6" s="3">
         <x:v>0</x:v>
@@ -1969,16 +1988,19 @@
       <x:c r="E6" s="3">
         <x:v>10101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" ht="16.399999999999999">
+      <x:c r="F6" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" ht="16.399999999999999">
       <x:c r="A7" s="3">
         <x:v>10105</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>300</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D7" s="3">
         <x:v>0</x:v>
@@ -1986,16 +2008,19 @@
       <x:c r="E7" s="3">
         <x:v>10101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5" ht="16.399999999999999">
+      <x:c r="F7" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" ht="16.399999999999999">
       <x:c r="A8" s="3">
         <x:v>10106</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>304</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D8" s="3">
         <x:v>0</x:v>
@@ -2003,16 +2028,19 @@
       <x:c r="E8" s="3">
         <x:v>10102</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" ht="16.399999999999999">
+      <x:c r="F8" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" ht="16.399999999999999">
       <x:c r="A9" s="3">
         <x:v>10107</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>280</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D9" s="3">
         <x:v>0</x:v>
@@ -2020,8 +2048,11 @@
       <x:c r="E9" s="3">
         <x:v>10102</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" ht="14.4" customHeight="1">
+      <x:c r="F9" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" ht="14.4" customHeight="1">
       <x:c r="A10" s="3">
         <x:v>10108</x:v>
       </x:c>
@@ -2029,7 +2060,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D10" s="3">
         <x:v>0</x:v>
@@ -2037,16 +2068,19 @@
       <x:c r="E10" s="3">
         <x:v>10103</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" ht="16.399999999999999">
+      <x:c r="F10" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" ht="16.399999999999999">
       <x:c r="A11" s="3">
         <x:v>10109</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D11" s="3">
         <x:v>0</x:v>
@@ -2054,16 +2088,19 @@
       <x:c r="E11" s="3">
         <x:v>10104</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5" ht="16.399999999999999">
+      <x:c r="F11" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" ht="16.399999999999999">
       <x:c r="A12" s="3">
         <x:v>10110</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>279</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>240</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D12" s="3">
         <x:v>0</x:v>
@@ -2071,16 +2108,19 @@
       <x:c r="E12" s="3">
         <x:v>10105</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" ht="16.399999999999999">
+      <x:c r="F12" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" ht="16.399999999999999">
       <x:c r="A13" s="3">
         <x:v>10111</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>200</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D13" s="3">
         <x:v>0</x:v>
@@ -2088,16 +2128,19 @@
       <x:c r="E13" s="3">
         <x:v>10105</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5" ht="16.399999999999999">
+      <x:c r="F13" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" ht="16.399999999999999">
       <x:c r="A14" s="3">
         <x:v>10112</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>222</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D14" s="3">
         <x:v>50</x:v>
@@ -2105,16 +2148,19 @@
       <x:c r="E14" s="3">
         <x:v>10106</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5" ht="16.399999999999999">
+      <x:c r="F14" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" ht="16.399999999999999">
       <x:c r="A15" s="3">
         <x:v>10113</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>301</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D15" s="3">
         <x:v>50</x:v>
@@ -2122,8 +2168,11 @@
       <x:c r="E15" s="3">
         <x:v>10107</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5" ht="16.399999999999999">
+      <x:c r="F15" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" ht="16.399999999999999">
       <x:c r="A16" s="3">
         <x:v>10114</x:v>
       </x:c>
@@ -2131,7 +2180,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D16" s="3">
         <x:v>50</x:v>
@@ -2139,8 +2188,11 @@
       <x:c r="E16" s="3">
         <x:v>10108</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5" ht="16.399999999999999">
+      <x:c r="F16" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" ht="16.399999999999999">
       <x:c r="A17" s="3">
         <x:v>10115</x:v>
       </x:c>
@@ -2148,7 +2200,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>205</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D17" s="3">
         <x:v>50</x:v>
@@ -2156,16 +2208,19 @@
       <x:c r="E17" s="3">
         <x:v>10109</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5" ht="16.399999999999999">
+      <x:c r="F17" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" ht="16.399999999999999">
       <x:c r="A18" s="3">
         <x:v>10116</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D18" s="3">
         <x:v>50</x:v>
@@ -2173,8 +2228,11 @@
       <x:c r="E18" s="3">
         <x:v>10110</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5" ht="16.399999999999999">
+      <x:c r="F18" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" ht="16.399999999999999">
       <x:c r="A19" s="3">
         <x:v>10117</x:v>
       </x:c>
@@ -2182,7 +2240,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>208</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D19" s="3">
         <x:v>50</x:v>
@@ -2190,8 +2248,11 @@
       <x:c r="E19" s="3">
         <x:v>10111</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5" ht="16.399999999999999">
+      <x:c r="F19" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" ht="16.399999999999999">
       <x:c r="A20" s="3">
         <x:v>10118</x:v>
       </x:c>
@@ -2199,7 +2260,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>215</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D20" s="3">
         <x:v>100</x:v>
@@ -2207,16 +2268,19 @@
       <x:c r="E20" s="3">
         <x:v>10112</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5" ht="16.399999999999999">
+      <x:c r="F20" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" ht="16.399999999999999">
       <x:c r="A21" s="3">
         <x:v>10119</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>246</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D21" s="3">
         <x:v>100</x:v>
@@ -2224,16 +2288,19 @@
       <x:c r="E21" s="3">
         <x:v>10113</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5" ht="16.399999999999999">
+      <x:c r="F21" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" ht="16.399999999999999">
       <x:c r="A22" s="3">
         <x:v>10120</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>180</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D22" s="3">
         <x:v>100</x:v>
@@ -2241,16 +2308,19 @@
       <x:c r="E22" s="3">
         <x:v>10114</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5" ht="16.399999999999999">
+      <x:c r="F22" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6" ht="16.399999999999999">
       <x:c r="A23" s="3">
         <x:v>10121</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>178</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>272</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D23" s="3">
         <x:v>100</x:v>
@@ -2258,16 +2328,19 @@
       <x:c r="E23" s="3">
         <x:v>10115</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5" ht="16.399999999999999">
+      <x:c r="F23" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6" ht="16.399999999999999">
       <x:c r="A24" s="3">
         <x:v>10122</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D24" s="3">
         <x:v>100</x:v>
@@ -2275,8 +2348,11 @@
       <x:c r="E24" s="3">
         <x:v>10116</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5" ht="16.399999999999999">
+      <x:c r="F24" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6" ht="16.399999999999999">
       <x:c r="A25" s="3">
         <x:v>10123</x:v>
       </x:c>
@@ -2284,7 +2360,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>216</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D25" s="3">
         <x:v>100</x:v>
@@ -2292,16 +2368,19 @@
       <x:c r="E25" s="3">
         <x:v>10117</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5" ht="16.399999999999999">
+      <x:c r="F25" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6" ht="16.399999999999999">
       <x:c r="A26" s="3">
         <x:v>10201</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>224</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D26" s="3">
         <x:v>0</x:v>
@@ -2309,8 +2388,11 @@
       <x:c r="E26" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5" ht="16.399999999999999">
+      <x:c r="F26" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6" ht="16.399999999999999">
       <x:c r="A27" s="3">
         <x:v>10202</x:v>
       </x:c>
@@ -2326,8 +2408,11 @@
       <x:c r="E27" s="3">
         <x:v>10201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5" ht="16.399999999999999">
+      <x:c r="F27" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6" ht="16.399999999999999">
       <x:c r="A28" s="3">
         <x:v>10203</x:v>
       </x:c>
@@ -2335,7 +2420,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>219</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D28" s="3">
         <x:v>50</x:v>
@@ -2343,8 +2428,11 @@
       <x:c r="E28" s="3">
         <x:v>10202</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5" ht="16.399999999999999">
+      <x:c r="F28" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6" ht="16.399999999999999">
       <x:c r="A29" s="3">
         <x:v>10204</x:v>
       </x:c>
@@ -2352,7 +2440,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D29" s="3">
         <x:v>100</x:v>
@@ -2360,16 +2448,19 @@
       <x:c r="E29" s="3">
         <x:v>10203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5" ht="16.399999999999999">
+      <x:c r="F29" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6" ht="16.399999999999999">
       <x:c r="A30" s="3">
         <x:v>10205</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>175</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D30" s="3">
         <x:v>200</x:v>
@@ -2377,16 +2468,19 @@
       <x:c r="E30" s="3">
         <x:v>10204</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5" ht="16.399999999999999">
+      <x:c r="F30" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6" ht="16.399999999999999">
       <x:c r="A31" s="3">
         <x:v>10301</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
-        <x:v>285</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>172</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D31" s="3">
         <x:v>0</x:v>
@@ -2394,16 +2488,19 @@
       <x:c r="E31" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:5" ht="16.399999999999999">
+      <x:c r="F31" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6" ht="16.399999999999999">
       <x:c r="A32" s="3">
         <x:v>10302</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>174</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>313</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D32" s="3">
         <x:v>0</x:v>
@@ -2411,16 +2508,19 @@
       <x:c r="E32" s="3">
         <x:v>10301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:5" ht="16.399999999999999">
+      <x:c r="F32" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6" ht="16.399999999999999">
       <x:c r="A33" s="3">
         <x:v>10303</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>290</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D33" s="3">
         <x:v>0</x:v>
@@ -2428,16 +2528,19 @@
       <x:c r="E33" s="3">
         <x:v>10301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:5" ht="16.399999999999999">
+      <x:c r="F33" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6" ht="16.399999999999999">
       <x:c r="A34" s="3">
         <x:v>10304</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>194</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D34" s="3">
         <x:v>0</x:v>
@@ -2445,8 +2548,11 @@
       <x:c r="E34" s="3">
         <x:v>10301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:5" ht="16.399999999999999">
+      <x:c r="F34" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6" ht="16.399999999999999">
       <x:c r="A35" s="3">
         <x:v>10305</x:v>
       </x:c>
@@ -2454,7 +2560,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>313</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D35" s="3">
         <x:v>50</x:v>
@@ -2462,16 +2568,19 @@
       <x:c r="E35" s="3">
         <x:v>10302</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:5" ht="16.399999999999999">
+      <x:c r="F35" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6" ht="16.399999999999999">
       <x:c r="A36" s="3">
         <x:v>10306</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>186</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>271</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D36" s="3">
         <x:v>50</x:v>
@@ -2479,16 +2588,19 @@
       <x:c r="E36" s="3">
         <x:v>10303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:5" ht="16.399999999999999">
+      <x:c r="F36" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6" ht="16.399999999999999">
       <x:c r="A37" s="3">
         <x:v>10307</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>169</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>327</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D37" s="3">
         <x:v>50</x:v>
@@ -2496,8 +2608,11 @@
       <x:c r="E37" s="3">
         <x:v>10304</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:5" ht="16.399999999999999">
+      <x:c r="F37" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6" ht="16.399999999999999">
       <x:c r="A38" s="3">
         <x:v>10308</x:v>
       </x:c>
@@ -2505,7 +2620,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>312</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D38" s="3">
         <x:v>100</x:v>
@@ -2513,16 +2628,19 @@
       <x:c r="E38" s="3">
         <x:v>10305</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:5" ht="16.399999999999999">
+      <x:c r="F38" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6" ht="16.399999999999999">
       <x:c r="A39" s="3">
         <x:v>10309</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>199</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>274</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D39" s="3">
         <x:v>100</x:v>
@@ -2530,16 +2648,19 @@
       <x:c r="E39" s="3">
         <x:v>10306</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:5" ht="16.399999999999999">
+      <x:c r="F39" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6" ht="16.399999999999999">
       <x:c r="A40" s="3">
         <x:v>10310</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>182</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>325</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D40" s="3">
         <x:v>100</x:v>
@@ -2547,16 +2668,19 @@
       <x:c r="E40" s="3">
         <x:v>10307</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:5" ht="16.399999999999999">
+      <x:c r="F40" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6" ht="16.399999999999999">
       <x:c r="A41" s="3">
         <x:v>10311</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>202</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>314</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D41" s="3">
         <x:v>200</x:v>
@@ -2564,8 +2688,11 @@
       <x:c r="E41" s="3">
         <x:v>10308</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:5" ht="16.399999999999999">
+      <x:c r="F41" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6" ht="16.399999999999999">
       <x:c r="A42" s="3">
         <x:v>10312</x:v>
       </x:c>
@@ -2573,7 +2700,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D42" s="3">
         <x:v>200</x:v>
@@ -2581,8 +2708,11 @@
       <x:c r="E42" s="3">
         <x:v>10309</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:5" ht="16.399999999999999">
+      <x:c r="F42" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6" ht="16.399999999999999">
       <x:c r="A43" s="3">
         <x:v>10313</x:v>
       </x:c>
@@ -2590,7 +2720,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D43" s="3">
         <x:v>200</x:v>
@@ -2598,16 +2728,19 @@
       <x:c r="E43" s="3">
         <x:v>10310</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:5" ht="16.399999999999999">
+      <x:c r="F43" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6" ht="16.399999999999999">
       <x:c r="A44" s="3">
         <x:v>10401</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>306</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>221</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D44" s="3">
         <x:v>0</x:v>
@@ -2615,16 +2748,19 @@
       <x:c r="E44" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:5" ht="16.399999999999999">
+      <x:c r="F44" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6" ht="16.399999999999999">
       <x:c r="A45" s="3">
         <x:v>10402</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>203</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D45" s="3">
         <x:v>0</x:v>
@@ -2632,16 +2768,19 @@
       <x:c r="E45" s="3">
         <x:v>10401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:5" ht="16.399999999999999">
+      <x:c r="F45" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6" ht="16.399999999999999">
       <x:c r="A46" s="3">
         <x:v>10403</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
-        <x:v>303</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D46" s="3">
         <x:v>0</x:v>
@@ -2649,16 +2788,19 @@
       <x:c r="E46" s="3">
         <x:v>10401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:5" ht="16.399999999999999">
+      <x:c r="F46" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6" ht="16.399999999999999">
       <x:c r="A47" s="3">
         <x:v>10404</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>273</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D47" s="3">
         <x:v>0</x:v>
@@ -2666,16 +2808,19 @@
       <x:c r="E47" s="3">
         <x:v>10401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:5" ht="16.399999999999999">
+      <x:c r="F47" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6" ht="16.399999999999999">
       <x:c r="A48" s="3">
         <x:v>10405</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>327</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D48" s="3">
         <x:v>50</x:v>
@@ -2683,16 +2828,19 @@
       <x:c r="E48" s="3">
         <x:v>10402</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:5" ht="16.399999999999999">
+      <x:c r="F48" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6" ht="16.399999999999999">
       <x:c r="A49" s="3">
         <x:v>10406</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>293</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>260</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D49" s="3">
         <x:v>50</x:v>
@@ -2700,16 +2848,19 @@
       <x:c r="E49" s="3">
         <x:v>10403</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:5" ht="16.399999999999999">
+      <x:c r="F49" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6" ht="16.399999999999999">
       <x:c r="A50" s="3">
         <x:v>10407</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>307</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>258</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D50" s="3">
         <x:v>50</x:v>
@@ -2717,16 +2868,19 @@
       <x:c r="E50" s="3">
         <x:v>10404</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:5" ht="16.399999999999999">
+      <x:c r="F50" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6" ht="16.399999999999999">
       <x:c r="A51" s="3">
         <x:v>10408</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>167</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>325</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D51" s="3">
         <x:v>100</x:v>
@@ -2734,16 +2888,19 @@
       <x:c r="E51" s="3">
         <x:v>10405</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:5" ht="16.399999999999999">
+      <x:c r="F51" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6" ht="16.399999999999999">
       <x:c r="A52" s="3">
         <x:v>10409</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
-        <x:v>284</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>256</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D52" s="3">
         <x:v>100</x:v>
@@ -2751,16 +2908,19 @@
       <x:c r="E52" s="3">
         <x:v>10406</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:5" ht="16.399999999999999">
+      <x:c r="F52" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6" ht="16.399999999999999">
       <x:c r="A53" s="3">
         <x:v>10410</x:v>
       </x:c>
       <x:c r="B53" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>255</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D53" s="3">
         <x:v>100</x:v>
@@ -2768,16 +2928,19 @@
       <x:c r="E53" s="3">
         <x:v>10407</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:5" ht="16.399999999999999">
+      <x:c r="F53" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6" ht="16.399999999999999">
       <x:c r="A54" s="3">
         <x:v>10411</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
-        <x:v>286</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D54" s="3">
         <x:v>200</x:v>
@@ -2785,16 +2948,19 @@
       <x:c r="E54" s="3">
         <x:v>10408</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:5" ht="16.399999999999999">
+      <x:c r="F54" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6" ht="16.399999999999999">
       <x:c r="A55" s="3">
         <x:v>10412</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>236</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D55" s="3">
         <x:v>200</x:v>
@@ -2802,16 +2968,19 @@
       <x:c r="E55" s="3">
         <x:v>10409</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:5" ht="16.399999999999999">
+      <x:c r="F55" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6" ht="16.399999999999999">
       <x:c r="A56" s="3">
         <x:v>10413</x:v>
       </x:c>
       <x:c r="B56" s="3" t="s">
-        <x:v>297</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>319</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D56" s="3">
         <x:v>200</x:v>
@@ -2819,16 +2988,19 @@
       <x:c r="E56" s="3">
         <x:v>10410</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:5" ht="16.399999999999999">
+      <x:c r="F56" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6" ht="16.399999999999999">
       <x:c r="A57" s="3">
         <x:v>10501</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D57" s="3">
         <x:v>0</x:v>
@@ -2836,16 +3008,19 @@
       <x:c r="E57" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:5" ht="16.399999999999999">
+      <x:c r="F57" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6" ht="16.399999999999999">
       <x:c r="A58" s="3">
         <x:v>10502</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D58" s="3">
         <x:v>0</x:v>
@@ -2853,16 +3028,19 @@
       <x:c r="E58" s="3">
         <x:v>10501</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:5" ht="16.399999999999999">
+      <x:c r="F58" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6" ht="16.399999999999999">
       <x:c r="A59" s="3">
         <x:v>10503</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D59" s="3">
         <x:v>0</x:v>
@@ -2870,16 +3048,19 @@
       <x:c r="E59" s="3">
         <x:v>10501</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:5" ht="16.399999999999999">
+      <x:c r="F59" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6" ht="16.399999999999999">
       <x:c r="A60" s="3">
         <x:v>10504</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D60" s="3">
         <x:v>50</x:v>
@@ -2887,16 +3068,19 @@
       <x:c r="E60" s="3">
         <x:v>10502</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:5" ht="16.399999999999999">
+      <x:c r="F60" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6" ht="16.399999999999999">
       <x:c r="A61" s="3">
         <x:v>10505</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>141</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D61" s="3">
         <x:v>50</x:v>
@@ -2904,16 +3088,19 @@
       <x:c r="E61" s="3">
         <x:v>10503</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:5" ht="16.399999999999999">
+      <x:c r="F61" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6" ht="16.399999999999999">
       <x:c r="A62" s="3">
         <x:v>10506</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D62" s="3">
         <x:v>100</x:v>
@@ -2921,16 +3108,19 @@
       <x:c r="E62" s="3">
         <x:v>10504</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:5" ht="16.399999999999999">
+      <x:c r="F62" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6" ht="16.399999999999999">
       <x:c r="A63" s="3">
         <x:v>10507</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D63" s="3">
         <x:v>100</x:v>
@@ -2938,16 +3128,19 @@
       <x:c r="E63" s="3">
         <x:v>10505</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:5" ht="16.399999999999999">
+      <x:c r="F63" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6" ht="16.399999999999999">
       <x:c r="A64" s="3">
         <x:v>10508</x:v>
       </x:c>
       <x:c r="B64" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D64" s="3">
         <x:v>200</x:v>
@@ -2955,16 +3148,19 @@
       <x:c r="E64" s="3">
         <x:v>10506</x:v>
       </x:c>
-    </x:row>
-    <x:row r="65" spans="1:5" ht="16.399999999999999">
+      <x:c r="F64" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6" ht="16.399999999999999">
       <x:c r="A65" s="3">
         <x:v>10509</x:v>
       </x:c>
       <x:c r="B65" s="3" t="s">
-        <x:v>139</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D65" s="3">
         <x:v>200</x:v>
@@ -2972,16 +3168,19 @@
       <x:c r="E65" s="3">
         <x:v>10507</x:v>
       </x:c>
-    </x:row>
-    <x:row r="66" spans="1:5" ht="16.399999999999999">
+      <x:c r="F65" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6" ht="16.399999999999999">
       <x:c r="A66" s="3">
         <x:v>10601</x:v>
       </x:c>
       <x:c r="B66" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>311</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D66" s="3">
         <x:v>0</x:v>
@@ -2989,16 +3188,19 @@
       <x:c r="E66" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="67" spans="1:5" ht="16.399999999999999">
+      <x:c r="F66" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6" ht="16.399999999999999">
       <x:c r="A67" s="3">
         <x:v>10602</x:v>
       </x:c>
       <x:c r="B67" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D67" s="3">
         <x:v>0</x:v>
@@ -3006,16 +3208,19 @@
       <x:c r="E67" s="3">
         <x:v>10601</x:v>
       </x:c>
-    </x:row>
-    <x:row r="68" spans="1:5" ht="16.399999999999999">
+      <x:c r="F67" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6" ht="16.399999999999999">
       <x:c r="A68" s="3">
         <x:v>10603</x:v>
       </x:c>
       <x:c r="B68" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D68" s="3">
         <x:v>0</x:v>
@@ -3023,16 +3228,19 @@
       <x:c r="E68" s="3">
         <x:v>10601</x:v>
       </x:c>
-    </x:row>
-    <x:row r="69" spans="1:5" ht="16.399999999999999">
+      <x:c r="F68" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6" ht="16.399999999999999">
       <x:c r="A69" s="3">
         <x:v>10604</x:v>
       </x:c>
       <x:c r="B69" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D69" s="3">
         <x:v>50</x:v>
@@ -3040,16 +3248,19 @@
       <x:c r="E69" s="3">
         <x:v>10602</x:v>
       </x:c>
-    </x:row>
-    <x:row r="70" spans="1:5" ht="16.399999999999999">
+      <x:c r="F69" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6" ht="16.399999999999999">
       <x:c r="A70" s="3">
         <x:v>10605</x:v>
       </x:c>
       <x:c r="B70" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D70" s="3">
         <x:v>50</x:v>
@@ -3057,16 +3268,19 @@
       <x:c r="E70" s="3">
         <x:v>10603</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:5" ht="16.399999999999999">
+      <x:c r="F70" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6" ht="16.399999999999999">
       <x:c r="A71" s="3">
         <x:v>10606</x:v>
       </x:c>
       <x:c r="B71" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D71" s="3">
         <x:v>100</x:v>
@@ -3074,16 +3288,19 @@
       <x:c r="E71" s="3">
         <x:v>10604</x:v>
       </x:c>
-    </x:row>
-    <x:row r="72" spans="1:5" ht="16.399999999999999">
+      <x:c r="F71" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6" ht="16.399999999999999">
       <x:c r="A72" s="3">
         <x:v>10607</x:v>
       </x:c>
       <x:c r="B72" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D72" s="3">
         <x:v>100</x:v>
@@ -3091,16 +3308,19 @@
       <x:c r="E72" s="3">
         <x:v>10605</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:5" ht="16.399999999999999">
+      <x:c r="F72" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6" ht="16.399999999999999">
       <x:c r="A73" s="3">
         <x:v>10608</x:v>
       </x:c>
       <x:c r="B73" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>251</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D73" s="3">
         <x:v>200</x:v>
@@ -3108,16 +3328,19 @@
       <x:c r="E73" s="3">
         <x:v>10606</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:5" ht="16.399999999999999">
+      <x:c r="F73" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6" ht="16.399999999999999">
       <x:c r="A74" s="3">
         <x:v>10609</x:v>
       </x:c>
       <x:c r="B74" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D74" s="3">
         <x:v>200</x:v>
@@ -3125,16 +3348,19 @@
       <x:c r="E74" s="3">
         <x:v>10607</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:5" ht="16.399999999999999">
+      <x:c r="F74" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6" ht="16.399999999999999">
       <x:c r="A75" s="3">
         <x:v>10701</x:v>
       </x:c>
       <x:c r="B75" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D75" s="3">
         <x:v>0</x:v>
@@ -3142,16 +3368,19 @@
       <x:c r="E75" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="76" spans="1:5" ht="16.399999999999999">
+      <x:c r="F75" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6" ht="16.399999999999999">
       <x:c r="A76" s="3">
         <x:v>10702</x:v>
       </x:c>
       <x:c r="B76" s="3" t="s">
-        <x:v>295</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D76" s="3">
         <x:v>0</x:v>
@@ -3159,8 +3388,11 @@
       <x:c r="E76" s="3">
         <x:v>10701</x:v>
       </x:c>
-    </x:row>
-    <x:row r="77" spans="1:5" ht="16.399999999999999">
+      <x:c r="F76" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6" ht="16.399999999999999">
       <x:c r="A77" s="3">
         <x:v>10703</x:v>
       </x:c>
@@ -3168,7 +3400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>161</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D77" s="3">
         <x:v>0</x:v>
@@ -3176,8 +3408,11 @@
       <x:c r="E77" s="3">
         <x:v>10701</x:v>
       </x:c>
-    </x:row>
-    <x:row r="78" spans="1:5" ht="16.399999999999999">
+      <x:c r="F77" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6" ht="16.399999999999999">
       <x:c r="A78" s="3">
         <x:v>10704</x:v>
       </x:c>
@@ -3185,7 +3420,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D78" s="3">
         <x:v>50</x:v>
@@ -3193,8 +3428,11 @@
       <x:c r="E78" s="3">
         <x:v>10702</x:v>
       </x:c>
-    </x:row>
-    <x:row r="79" spans="1:5" ht="16.399999999999999">
+      <x:c r="F78" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6" ht="16.399999999999999">
       <x:c r="A79" s="3">
         <x:v>10705</x:v>
       </x:c>
@@ -3202,7 +3440,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D79" s="3">
         <x:v>50</x:v>
@@ -3210,8 +3448,11 @@
       <x:c r="E79" s="3">
         <x:v>10703</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:5" ht="16.399999999999999">
+      <x:c r="F79" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6" ht="16.399999999999999">
       <x:c r="A80" s="3">
         <x:v>10706</x:v>
       </x:c>
@@ -3219,7 +3460,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D80" s="3">
         <x:v>100</x:v>
@@ -3227,16 +3468,19 @@
       <x:c r="E80" s="3">
         <x:v>10704</x:v>
       </x:c>
-    </x:row>
-    <x:row r="81" spans="1:5" ht="16.399999999999999">
+      <x:c r="F80" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6" ht="16.399999999999999">
       <x:c r="A81" s="3">
         <x:v>10707</x:v>
       </x:c>
       <x:c r="B81" s="3" t="s">
-        <x:v>193</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>113</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D81" s="3">
         <x:v>100</x:v>
@@ -3244,13 +3488,16 @@
       <x:c r="E81" s="3">
         <x:v>10705</x:v>
       </x:c>
-    </x:row>
-    <x:row r="82" spans="1:5" ht="16.399999999999999">
+      <x:c r="F81" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6" ht="16.399999999999999">
       <x:c r="A82" s="3">
         <x:v>10708</x:v>
       </x:c>
       <x:c r="B82" s="3" t="s">
-        <x:v>179</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
         <x:v>29</x:v>
@@ -3261,8 +3508,11 @@
       <x:c r="E82" s="3">
         <x:v>10706</x:v>
       </x:c>
-    </x:row>
-    <x:row r="83" spans="1:5" ht="16.399999999999999">
+      <x:c r="F82" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6" ht="16.399999999999999">
       <x:c r="A83" s="3">
         <x:v>10709</x:v>
       </x:c>
@@ -3270,7 +3520,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D83" s="3">
         <x:v>200</x:v>
@@ -3278,16 +3528,19 @@
       <x:c r="E83" s="3">
         <x:v>10707</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:5" ht="16.399999999999999">
+      <x:c r="F83" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6" ht="16.399999999999999">
       <x:c r="A84" s="3">
         <x:v>10801</x:v>
       </x:c>
       <x:c r="B84" s="3" t="s">
-        <x:v>305</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C84" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D84" s="3">
         <x:v>0</x:v>
@@ -3295,16 +3548,19 @@
       <x:c r="E84" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="85" spans="1:5" ht="16.399999999999999">
+      <x:c r="F84" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6" ht="16.399999999999999">
       <x:c r="A85" s="3">
         <x:v>10802</x:v>
       </x:c>
       <x:c r="B85" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C85" s="3" t="s">
-        <x:v>250</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D85" s="3">
         <x:v>0</x:v>
@@ -3312,16 +3568,19 @@
       <x:c r="E85" s="3">
         <x:v>10801</x:v>
       </x:c>
-    </x:row>
-    <x:row r="86" spans="1:5" ht="16.399999999999999">
+      <x:c r="F85" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6" ht="16.399999999999999">
       <x:c r="A86" s="3">
         <x:v>10803</x:v>
       </x:c>
       <x:c r="B86" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C86" s="3" t="s">
-        <x:v>157</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D86" s="3">
         <x:v>0</x:v>
@@ -3329,16 +3588,19 @@
       <x:c r="E86" s="3">
         <x:v>10801</x:v>
       </x:c>
-    </x:row>
-    <x:row r="87" spans="1:5" ht="16.399999999999999">
+      <x:c r="F86" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6" ht="16.399999999999999">
       <x:c r="A87" s="3">
         <x:v>10804</x:v>
       </x:c>
       <x:c r="B87" s="3" t="s">
-        <x:v>188</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C87" s="3" t="s">
-        <x:v>249</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D87" s="3">
         <x:v>50</x:v>
@@ -3346,8 +3608,11 @@
       <x:c r="E87" s="3">
         <x:v>10802</x:v>
       </x:c>
-    </x:row>
-    <x:row r="88" spans="1:5" ht="16.399999999999999">
+      <x:c r="F87" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6" ht="16.399999999999999">
       <x:c r="A88" s="3">
         <x:v>10805</x:v>
       </x:c>
@@ -3355,7 +3620,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C88" s="3" t="s">
-        <x:v>269</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D88" s="3">
         <x:v>50</x:v>
@@ -3363,16 +3628,19 @@
       <x:c r="E88" s="3">
         <x:v>10803</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:5" ht="16.399999999999999">
+      <x:c r="F88" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6" ht="16.399999999999999">
       <x:c r="A89" s="3">
         <x:v>10806</x:v>
       </x:c>
       <x:c r="B89" s="3" t="s">
-        <x:v>184</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C89" s="3" t="s">
-        <x:v>160</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D89" s="3">
         <x:v>100</x:v>
@@ -3380,8 +3648,11 @@
       <x:c r="E89" s="3">
         <x:v>10804</x:v>
       </x:c>
-    </x:row>
-    <x:row r="90" spans="1:5" ht="16.399999999999999">
+      <x:c r="F89" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6" ht="16.399999999999999">
       <x:c r="A90" s="3">
         <x:v>10807</x:v>
       </x:c>
@@ -3389,7 +3660,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C90" s="3" t="s">
-        <x:v>264</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D90" s="3">
         <x:v>100</x:v>
@@ -3397,16 +3668,19 @@
       <x:c r="E90" s="3">
         <x:v>10805</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:5" ht="16.399999999999999">
+      <x:c r="F90" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6" ht="16.399999999999999">
       <x:c r="A91" s="3">
         <x:v>10808</x:v>
       </x:c>
       <x:c r="B91" s="3" t="s">
-        <x:v>287</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C91" s="3" t="s">
-        <x:v>231</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D91" s="3">
         <x:v>200</x:v>
@@ -3414,16 +3688,19 @@
       <x:c r="E91" s="3">
         <x:v>10806</x:v>
       </x:c>
-    </x:row>
-    <x:row r="92" spans="1:5" ht="16.399999999999999">
+      <x:c r="F91" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6" ht="16.399999999999999">
       <x:c r="A92" s="3">
         <x:v>10809</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>298</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C92" s="3" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D92" s="3">
         <x:v>200</x:v>
@@ -3431,16 +3708,19 @@
       <x:c r="E92" s="3">
         <x:v>10807</x:v>
       </x:c>
-    </x:row>
-    <x:row r="93" spans="1:5" ht="16.399999999999999">
+      <x:c r="F92" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6" ht="16.399999999999999">
       <x:c r="A93" s="3">
         <x:v>10901</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>192</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C93" s="3" t="s">
-        <x:v>212</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D93" s="3">
         <x:v>0</x:v>
@@ -3448,16 +3728,19 @@
       <x:c r="E93" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="94" spans="1:5" ht="16.399999999999999">
+      <x:c r="F93" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6" ht="16.399999999999999">
       <x:c r="A94" s="3">
         <x:v>10902</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>294</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C94" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D94" s="3">
         <x:v>0</x:v>
@@ -3465,8 +3748,11 @@
       <x:c r="E94" s="3">
         <x:v>10901</x:v>
       </x:c>
-    </x:row>
-    <x:row r="95" spans="1:5" ht="16.399999999999999">
+      <x:c r="F94" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6" ht="16.399999999999999">
       <x:c r="A95" s="3">
         <x:v>10903</x:v>
       </x:c>
@@ -3474,7 +3760,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C95" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D95" s="3">
         <x:v>0</x:v>
@@ -3482,8 +3768,11 @@
       <x:c r="E95" s="3">
         <x:v>10901</x:v>
       </x:c>
-    </x:row>
-    <x:row r="96" spans="1:5" ht="16.399999999999999">
+      <x:c r="F95" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6" ht="16.399999999999999">
       <x:c r="A96" s="3">
         <x:v>10904</x:v>
       </x:c>
@@ -3491,7 +3780,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C96" s="3" t="s">
-        <x:v>156</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D96" s="3">
         <x:v>0</x:v>
@@ -3499,16 +3788,19 @@
       <x:c r="E96" s="3">
         <x:v>10901</x:v>
       </x:c>
-    </x:row>
-    <x:row r="97" spans="1:5" ht="16.399999999999999">
+      <x:c r="F96" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6" ht="16.399999999999999">
       <x:c r="A97" s="3">
         <x:v>10905</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>283</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C97" s="3" t="s">
-        <x:v>118</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D97" s="3">
         <x:v>50</x:v>
@@ -3516,8 +3808,11 @@
       <x:c r="E97" s="3">
         <x:v>10902</x:v>
       </x:c>
-    </x:row>
-    <x:row r="98" spans="1:5" ht="16.399999999999999">
+      <x:c r="F97" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6" ht="16.399999999999999">
       <x:c r="A98" s="3">
         <x:v>10906</x:v>
       </x:c>
@@ -3525,7 +3820,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C98" s="3" t="s">
-        <x:v>248</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D98" s="3">
         <x:v>50</x:v>
@@ -3533,16 +3828,19 @@
       <x:c r="E98" s="3">
         <x:v>10903</x:v>
       </x:c>
-    </x:row>
-    <x:row r="99" spans="1:5" ht="16.399999999999999">
+      <x:c r="F98" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6" ht="16.399999999999999">
       <x:c r="A99" s="3">
         <x:v>10907</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C99" s="3" t="s">
-        <x:v>163</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D99" s="3">
         <x:v>50</x:v>
@@ -3550,16 +3848,19 @@
       <x:c r="E99" s="3">
         <x:v>10904</x:v>
       </x:c>
-    </x:row>
-    <x:row r="100" spans="1:5" ht="16.399999999999999">
+      <x:c r="F99" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6" ht="16.399999999999999">
       <x:c r="A100" s="3">
         <x:v>10908</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>299</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C100" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D100" s="3">
         <x:v>100</x:v>
@@ -3567,16 +3868,19 @@
       <x:c r="E100" s="3">
         <x:v>10905</x:v>
       </x:c>
-    </x:row>
-    <x:row r="101" spans="1:5" ht="16.399999999999999">
+      <x:c r="F100" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6" ht="16.399999999999999">
       <x:c r="A101" s="3">
         <x:v>10909</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C101" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D101" s="3">
         <x:v>100</x:v>
@@ -3584,16 +3888,19 @@
       <x:c r="E101" s="3">
         <x:v>10906</x:v>
       </x:c>
-    </x:row>
-    <x:row r="102" spans="1:5" ht="16.399999999999999">
+      <x:c r="F101" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6" ht="16.399999999999999">
       <x:c r="A102" s="3">
         <x:v>10910</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>191</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C102" s="3" t="s">
-        <x:v>111</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D102" s="3">
         <x:v>100</x:v>
@@ -3601,16 +3908,19 @@
       <x:c r="E102" s="3">
         <x:v>10907</x:v>
       </x:c>
-    </x:row>
-    <x:row r="103" spans="1:5" ht="16.399999999999999">
+      <x:c r="F102" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:6" ht="16.399999999999999">
       <x:c r="A103" s="3">
         <x:v>10911</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>296</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C103" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D103" s="3">
         <x:v>200</x:v>
@@ -3618,16 +3928,19 @@
       <x:c r="E103" s="3">
         <x:v>10908</x:v>
       </x:c>
-    </x:row>
-    <x:row r="104" spans="1:5" ht="16.399999999999999">
+      <x:c r="F103" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6" ht="16.399999999999999">
       <x:c r="A104" s="3">
         <x:v>10912</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>278</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C104" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D104" s="3">
         <x:v>200</x:v>
@@ -3635,16 +3948,19 @@
       <x:c r="E104" s="3">
         <x:v>10909</x:v>
       </x:c>
-    </x:row>
-    <x:row r="105" spans="1:5" ht="16.399999999999999">
+      <x:c r="F104" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:6" ht="16.399999999999999">
       <x:c r="A105" s="3">
         <x:v>10913</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>289</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C105" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D105" s="3">
         <x:v>200</x:v>
@@ -3652,16 +3968,19 @@
       <x:c r="E105" s="3">
         <x:v>10910</x:v>
       </x:c>
-    </x:row>
-    <x:row r="106" spans="1:5" ht="16.399999999999999">
+      <x:c r="F105" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:6" ht="16.399999999999999">
       <x:c r="A106" s="3">
         <x:v>11001</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C106" s="3" t="s">
-        <x:v>187</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D106" s="3">
         <x:v>0</x:v>
@@ -3669,13 +3988,16 @@
       <x:c r="E106" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="107" spans="1:5" ht="16.399999999999999">
+      <x:c r="F106" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:6" ht="16.399999999999999">
       <x:c r="A107" s="3">
         <x:v>11002</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>292</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C107" s="3" t="s">
         <x:v>30</x:v>
@@ -3686,13 +4008,16 @@
       <x:c r="E107" s="3">
         <x:v>11001</x:v>
       </x:c>
-    </x:row>
-    <x:row r="108" spans="1:5" ht="16.399999999999999">
+      <x:c r="F107" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:6" ht="16.399999999999999">
       <x:c r="A108" s="3">
         <x:v>11003</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C108" s="3" t="s">
         <x:v>1</x:v>
@@ -3703,16 +4028,19 @@
       <x:c r="E108" s="3">
         <x:v>11002</x:v>
       </x:c>
-    </x:row>
-    <x:row r="109" spans="1:5" ht="16.399999999999999">
+      <x:c r="F108" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:6" ht="16.399999999999999">
       <x:c r="A109" s="3">
         <x:v>11004</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C109" s="3" t="s">
-        <x:v>218</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D109" s="3">
         <x:v>100</x:v>
@@ -3720,16 +4048,19 @@
       <x:c r="E109" s="3">
         <x:v>11003</x:v>
       </x:c>
-    </x:row>
-    <x:row r="110" spans="1:5" ht="16.399999999999999">
+      <x:c r="F109" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:6" ht="16.399999999999999">
       <x:c r="A110" s="3">
         <x:v>11005</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>176</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C110" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D110" s="3">
         <x:v>200</x:v>
@@ -3737,16 +4068,19 @@
       <x:c r="E110" s="3">
         <x:v>11004</x:v>
       </x:c>
-    </x:row>
-    <x:row r="111" spans="1:5" ht="16.399999999999999">
+      <x:c r="F110" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:6" ht="16.399999999999999">
       <x:c r="A111" s="3">
         <x:v>11101</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C111" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D111" s="3">
         <x:v>0</x:v>
@@ -3754,16 +4088,19 @@
       <x:c r="E111" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="112" spans="1:5" ht="16.399999999999999">
+      <x:c r="F111" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:6" ht="16.399999999999999">
       <x:c r="A112" s="3">
         <x:v>11102</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>168</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C112" s="3" t="s">
-        <x:v>220</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D112" s="3">
         <x:v>0</x:v>
@@ -3771,16 +4108,19 @@
       <x:c r="E112" s="3">
         <x:v>11101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="113" spans="1:5" ht="16.399999999999999">
+      <x:c r="F112" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:6" ht="16.399999999999999">
       <x:c r="A113" s="3">
         <x:v>11103</x:v>
       </x:c>
       <x:c r="B113" s="3" t="s">
-        <x:v>197</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C113" s="3" t="s">
-        <x:v>207</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D113" s="3">
         <x:v>50</x:v>
@@ -3788,16 +4128,19 @@
       <x:c r="E113" s="3">
         <x:v>11102</x:v>
       </x:c>
-    </x:row>
-    <x:row r="114" spans="1:5" ht="16.399999999999999">
+      <x:c r="F113" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:6" ht="16.399999999999999">
       <x:c r="A114" s="3">
         <x:v>11104</x:v>
       </x:c>
       <x:c r="B114" s="3" t="s">
-        <x:v>210</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C114" s="3" t="s">
-        <x:v>254</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D114" s="3">
         <x:v>100</x:v>
@@ -3805,16 +4148,19 @@
       <x:c r="E114" s="3">
         <x:v>11103</x:v>
       </x:c>
-    </x:row>
-    <x:row r="115" spans="1:5" ht="16.399999999999999">
+      <x:c r="F114" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:6" ht="16.399999999999999">
       <x:c r="A115" s="3">
         <x:v>11105</x:v>
       </x:c>
       <x:c r="B115" s="3" t="s">
-        <x:v>198</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C115" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D115" s="3">
         <x:v>200</x:v>
@@ -3822,16 +4168,19 @@
       <x:c r="E115" s="3">
         <x:v>11104</x:v>
       </x:c>
-    </x:row>
-    <x:row r="116" spans="1:5" ht="16.399999999999999">
+      <x:c r="F115" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:6" ht="16.399999999999999">
       <x:c r="A116" s="3">
         <x:v>11201</x:v>
       </x:c>
       <x:c r="B116" s="3" t="s">
-        <x:v>308</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C116" s="3" t="s">
-        <x:v>214</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D116" s="3">
         <x:v>0</x:v>
@@ -3839,8 +4188,11 @@
       <x:c r="E116" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="117" spans="1:5" ht="16.399999999999999">
+      <x:c r="F116" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:6" ht="16.399999999999999">
       <x:c r="A117" s="3">
         <x:v>11202</x:v>
       </x:c>
@@ -3848,7 +4200,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C117" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D117" s="3">
         <x:v>0</x:v>
@@ -3856,8 +4208,11 @@
       <x:c r="E117" s="3">
         <x:v>11201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="118" spans="1:5" ht="16.399999999999999">
+      <x:c r="F117" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:6" ht="16.399999999999999">
       <x:c r="A118" s="3">
         <x:v>11203</x:v>
       </x:c>
@@ -3865,7 +4220,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C118" s="3" t="s">
-        <x:v>270</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D118" s="3">
         <x:v>0</x:v>
@@ -3873,16 +4228,19 @@
       <x:c r="E118" s="3">
         <x:v>11201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="119" spans="1:5" ht="16.399999999999999">
+      <x:c r="F118" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:6" ht="16.399999999999999">
       <x:c r="A119" s="3">
         <x:v>11204</x:v>
       </x:c>
       <x:c r="B119" s="3" t="s">
-        <x:v>223</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C119" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D119" s="3">
         <x:v>50</x:v>
@@ -3890,16 +4248,19 @@
       <x:c r="E119" s="3">
         <x:v>11202</x:v>
       </x:c>
-    </x:row>
-    <x:row r="120" spans="1:5" ht="16.399999999999999">
+      <x:c r="F119" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:6" ht="16.399999999999999">
       <x:c r="A120" s="3">
         <x:v>11205</x:v>
       </x:c>
       <x:c r="B120" s="3" t="s">
-        <x:v>173</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C120" s="3" t="s">
-        <x:v>267</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D120" s="3">
         <x:v>50</x:v>
@@ -3907,16 +4268,19 @@
       <x:c r="E120" s="3">
         <x:v>11203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="121" spans="1:5" ht="16.399999999999999">
+      <x:c r="F120" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:6" ht="16.399999999999999">
       <x:c r="A121" s="3">
         <x:v>11206</x:v>
       </x:c>
       <x:c r="B121" s="3" t="s">
-        <x:v>206</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C121" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D121" s="3">
         <x:v>100</x:v>
@@ -3924,16 +4288,19 @@
       <x:c r="E121" s="3">
         <x:v>11204</x:v>
       </x:c>
-    </x:row>
-    <x:row r="122" spans="1:5" ht="16.399999999999999">
+      <x:c r="F121" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:6" ht="16.399999999999999">
       <x:c r="A122" s="3">
         <x:v>11207</x:v>
       </x:c>
       <x:c r="B122" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C122" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D122" s="3">
         <x:v>100</x:v>
@@ -3941,16 +4308,19 @@
       <x:c r="E122" s="3">
         <x:v>11205</x:v>
       </x:c>
-    </x:row>
-    <x:row r="123" spans="1:5" ht="16.399999999999999">
+      <x:c r="F122" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:6" ht="16.399999999999999">
       <x:c r="A123" s="3">
         <x:v>11208</x:v>
       </x:c>
       <x:c r="B123" s="3" t="s">
-        <x:v>189</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C123" s="3" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D123" s="3">
         <x:v>200</x:v>
@@ -3958,16 +4328,19 @@
       <x:c r="E123" s="3">
         <x:v>11206</x:v>
       </x:c>
-    </x:row>
-    <x:row r="124" spans="1:5" ht="16.399999999999999">
+      <x:c r="F123" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:6" ht="16.399999999999999">
       <x:c r="A124" s="3">
         <x:v>11209</x:v>
       </x:c>
       <x:c r="B124" s="3" t="s">
-        <x:v>177</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C124" s="3" t="s">
-        <x:v>243</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D124" s="3">
         <x:v>200</x:v>
@@ -3975,13 +4348,16 @@
       <x:c r="E124" s="3">
         <x:v>11207</x:v>
       </x:c>
-    </x:row>
-    <x:row r="125" spans="1:5" ht="16.399999999999999">
+      <x:c r="F124" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:6" ht="16.399999999999999">
       <x:c r="A125" s="3">
         <x:v>11301</x:v>
       </x:c>
       <x:c r="B125" s="3" t="s">
-        <x:v>288</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C125" s="3" t="s">
         <x:v>0</x:v>
@@ -3992,16 +4368,19 @@
       <x:c r="E125" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="126" spans="1:5" ht="16.399999999999999">
+      <x:c r="F125" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:6" ht="16.399999999999999">
       <x:c r="A126" s="3">
         <x:v>11302</x:v>
       </x:c>
       <x:c r="B126" s="3" t="s">
-        <x:v>171</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C126" s="3" t="s">
-        <x:v>263</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D126" s="3">
         <x:v>0</x:v>
@@ -4009,16 +4388,19 @@
       <x:c r="E126" s="3">
         <x:v>11301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="127" spans="1:5" ht="16.399999999999999">
+      <x:c r="F126" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:6" ht="16.399999999999999">
       <x:c r="A127" s="3">
         <x:v>11303</x:v>
       </x:c>
       <x:c r="B127" s="3" t="s">
-        <x:v>201</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C127" s="3" t="s">
-        <x:v>257</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D127" s="3">
         <x:v>0</x:v>
@@ -4026,16 +4408,19 @@
       <x:c r="E127" s="3">
         <x:v>11301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="128" spans="1:5" ht="16.399999999999999">
+      <x:c r="F127" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:6" ht="16.399999999999999">
       <x:c r="A128" s="3">
         <x:v>11304</x:v>
       </x:c>
       <x:c r="B128" s="3" t="s">
-        <x:v>195</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C128" s="3" t="s">
-        <x:v>266</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D128" s="3">
         <x:v>50</x:v>
@@ -4043,16 +4428,19 @@
       <x:c r="E128" s="3">
         <x:v>11303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="129" spans="1:5" ht="16.399999999999999">
+      <x:c r="F128" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:6" ht="16.399999999999999">
       <x:c r="A129" s="3">
         <x:v>11305</x:v>
       </x:c>
       <x:c r="B129" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C129" s="3" t="s">
-        <x:v>259</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D129" s="3">
         <x:v>50</x:v>
@@ -4060,16 +4448,19 @@
       <x:c r="E129" s="3">
         <x:v>11304</x:v>
       </x:c>
-    </x:row>
-    <x:row r="130" spans="1:5" ht="16.399999999999999">
+      <x:c r="F129" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:6" ht="16.399999999999999">
       <x:c r="A130" s="3">
         <x:v>11306</x:v>
       </x:c>
       <x:c r="B130" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C130" s="3" t="s">
-        <x:v>276</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D130" s="3">
         <x:v>100</x:v>
@@ -4077,16 +4468,19 @@
       <x:c r="E130" s="3">
         <x:v>11301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="131" spans="1:5" ht="16.399999999999999">
+      <x:c r="F130" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:6" ht="16.399999999999999">
       <x:c r="A131" s="3">
         <x:v>11307</x:v>
       </x:c>
       <x:c r="B131" s="3" t="s">
-        <x:v>211</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C131" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D131" s="3">
         <x:v>100</x:v>
@@ -4094,16 +4488,19 @@
       <x:c r="E131" s="3">
         <x:v>11306</x:v>
       </x:c>
-    </x:row>
-    <x:row r="132" spans="1:5" ht="16.399999999999999">
+      <x:c r="F131" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:6" ht="16.399999999999999">
       <x:c r="A132" s="3">
         <x:v>11308</x:v>
       </x:c>
       <x:c r="B132" s="3" t="s">
-        <x:v>204</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C132" s="3" t="s">
-        <x:v>245</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D132" s="3">
         <x:v>200</x:v>
@@ -4111,8 +4508,11 @@
       <x:c r="E132" s="3">
         <x:v>11307</x:v>
       </x:c>
-    </x:row>
-    <x:row r="133" spans="1:5" ht="16.399999999999999">
+      <x:c r="F132" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:6" ht="16.399999999999999">
       <x:c r="A133" s="3">
         <x:v>11309</x:v>
       </x:c>
@@ -4120,7 +4520,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C133" s="3" t="s">
-        <x:v>318</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D133" s="3">
         <x:v>200</x:v>
@@ -4128,16 +4528,19 @@
       <x:c r="E133" s="3">
         <x:v>11308</x:v>
       </x:c>
-    </x:row>
-    <x:row r="134" spans="1:5" ht="16.399999999999999">
+      <x:c r="F133" s="3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:6" ht="16.399999999999999">
       <x:c r="A134" s="3">
         <x:v>20101</x:v>
       </x:c>
       <x:c r="B134" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C134" s="3" t="s">
-        <x:v>323</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D134" s="3">
         <x:v>0</x:v>
@@ -4145,16 +4548,19 @@
       <x:c r="E134" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="135" spans="1:5" ht="16.399999999999999">
+      <x:c r="F134" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:6" ht="16.399999999999999">
       <x:c r="A135" s="3">
         <x:v>20102</x:v>
       </x:c>
       <x:c r="B135" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C135" s="3" t="s">
-        <x:v>320</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D135" s="3">
         <x:v>50</x:v>
@@ -4162,16 +4568,19 @@
       <x:c r="E135" s="3">
         <x:v>20101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="136" spans="1:5" ht="16.399999999999999">
+      <x:c r="F135" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:6" ht="16.399999999999999">
       <x:c r="A136" s="3">
         <x:v>20103</x:v>
       </x:c>
       <x:c r="B136" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C136" s="3" t="s">
-        <x:v>326</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D136" s="3">
         <x:v>100</x:v>
@@ -4179,16 +4588,19 @@
       <x:c r="E136" s="3">
         <x:v>20102</x:v>
       </x:c>
-    </x:row>
-    <x:row r="137" spans="1:5" ht="16.399999999999999">
+      <x:c r="F136" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:6" ht="16.399999999999999">
       <x:c r="A137" s="3">
         <x:v>20104</x:v>
       </x:c>
       <x:c r="B137" s="3" t="s">
-        <x:v>145</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C137" s="3" t="s">
-        <x:v>324</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D137" s="3">
         <x:v>200</x:v>
@@ -4196,16 +4608,19 @@
       <x:c r="E137" s="3">
         <x:v>20103</x:v>
       </x:c>
-    </x:row>
-    <x:row r="138" spans="1:5" ht="16.399999999999999">
+      <x:c r="F137" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:6" ht="16.399999999999999">
       <x:c r="A138" s="3">
         <x:v>20201</x:v>
       </x:c>
       <x:c r="B138" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C138" s="3" t="s">
-        <x:v>322</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D138" s="3">
         <x:v>0</x:v>
@@ -4213,16 +4628,19 @@
       <x:c r="E138" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="139" spans="1:5" ht="16.399999999999999">
+      <x:c r="F138" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:6" ht="16.399999999999999">
       <x:c r="A139" s="3">
         <x:v>20202</x:v>
       </x:c>
       <x:c r="B139" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C139" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D139" s="3">
         <x:v>50</x:v>
@@ -4230,16 +4648,19 @@
       <x:c r="E139" s="3">
         <x:v>20201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="140" spans="1:5" ht="16.399999999999999">
+      <x:c r="F139" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:6" ht="16.399999999999999">
       <x:c r="A140" s="3">
         <x:v>20203</x:v>
       </x:c>
       <x:c r="B140" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C140" s="3" t="s">
-        <x:v>321</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D140" s="3">
         <x:v>100</x:v>
@@ -4247,16 +4668,19 @@
       <x:c r="E140" s="3">
         <x:v>20202</x:v>
       </x:c>
-    </x:row>
-    <x:row r="141" spans="1:5" ht="16.399999999999999">
+      <x:c r="F140" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:6" ht="16.399999999999999">
       <x:c r="A141" s="3">
         <x:v>20204</x:v>
       </x:c>
       <x:c r="B141" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C141" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D141" s="3">
         <x:v>200</x:v>
@@ -4264,16 +4688,19 @@
       <x:c r="E141" s="3">
         <x:v>20203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="142" spans="1:5" ht="16.399999999999999">
+      <x:c r="F141" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:6" ht="16.399999999999999">
       <x:c r="A142" s="3">
         <x:v>20301</x:v>
       </x:c>
       <x:c r="B142" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C142" s="3" t="s">
-        <x:v>154</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D142" s="3">
         <x:v>0</x:v>
@@ -4281,16 +4708,19 @@
       <x:c r="E142" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="143" spans="1:5" ht="16.399999999999999">
+      <x:c r="F142" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:6" ht="16.399999999999999">
       <x:c r="A143" s="3">
         <x:v>20302</x:v>
       </x:c>
       <x:c r="B143" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C143" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D143" s="3">
         <x:v>50</x:v>
@@ -4298,16 +4728,19 @@
       <x:c r="E143" s="3">
         <x:v>20301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="144" spans="1:5" ht="16.399999999999999">
+      <x:c r="F143" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:6" ht="16.399999999999999">
       <x:c r="A144" s="3">
         <x:v>20303</x:v>
       </x:c>
       <x:c r="B144" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C144" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D144" s="3">
         <x:v>100</x:v>
@@ -4315,16 +4748,19 @@
       <x:c r="E144" s="3">
         <x:v>20302</x:v>
       </x:c>
-    </x:row>
-    <x:row r="145" spans="1:5" ht="16.399999999999999">
+      <x:c r="F144" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:6" ht="16.399999999999999">
       <x:c r="A145" s="3">
         <x:v>20304</x:v>
       </x:c>
       <x:c r="B145" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C145" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D145" s="3">
         <x:v>200</x:v>
@@ -4332,16 +4768,19 @@
       <x:c r="E145" s="3">
         <x:v>20303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="146" spans="1:5" ht="16.399999999999999">
+      <x:c r="F145" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:6" ht="16.399999999999999">
       <x:c r="A146" s="3">
         <x:v>20401</x:v>
       </x:c>
       <x:c r="B146" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C146" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D146" s="3">
         <x:v>0</x:v>
@@ -4349,16 +4788,19 @@
       <x:c r="E146" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="147" spans="1:5" ht="16.399999999999999">
+      <x:c r="F146" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:6" ht="16.399999999999999">
       <x:c r="A147" s="3">
         <x:v>20402</x:v>
       </x:c>
       <x:c r="B147" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C147" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D147" s="3">
         <x:v>50</x:v>
@@ -4366,16 +4808,19 @@
       <x:c r="E147" s="3">
         <x:v>20401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="148" spans="1:5" ht="16.399999999999999">
+      <x:c r="F147" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:6" ht="16.399999999999999">
       <x:c r="A148" s="3">
         <x:v>20403</x:v>
       </x:c>
       <x:c r="B148" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C148" s="3" t="s">
-        <x:v>115</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D148" s="3">
         <x:v>100</x:v>
@@ -4383,16 +4828,19 @@
       <x:c r="E148" s="3">
         <x:v>20402</x:v>
       </x:c>
-    </x:row>
-    <x:row r="149" spans="1:5" ht="16.399999999999999">
+      <x:c r="F148" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:6" ht="16.399999999999999">
       <x:c r="A149" s="3">
         <x:v>20404</x:v>
       </x:c>
       <x:c r="B149" s="3" t="s">
-        <x:v>152</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C149" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D149" s="3">
         <x:v>200</x:v>
@@ -4400,16 +4848,19 @@
       <x:c r="E149" s="3">
         <x:v>20403</x:v>
       </x:c>
-    </x:row>
-    <x:row r="150" spans="1:5" ht="16.399999999999999">
+      <x:c r="F149" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:6" ht="16.399999999999999">
       <x:c r="A150" s="3">
         <x:v>30101</x:v>
       </x:c>
       <x:c r="B150" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C150" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D150" s="3">
         <x:v>50</x:v>
@@ -4417,16 +4868,19 @@
       <x:c r="E150" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="151" spans="1:5" ht="16.399999999999999">
+      <x:c r="F150" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:6" ht="16.399999999999999">
       <x:c r="A151" s="3">
         <x:v>30102</x:v>
       </x:c>
       <x:c r="B151" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C151" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D151" s="3">
         <x:v>100</x:v>
@@ -4434,16 +4888,19 @@
       <x:c r="E151" s="3">
         <x:v>30101</x:v>
       </x:c>
-    </x:row>
-    <x:row r="152" spans="1:5" ht="16.399999999999999">
+      <x:c r="F151" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:6" ht="16.399999999999999">
       <x:c r="A152" s="3">
         <x:v>30103</x:v>
       </x:c>
       <x:c r="B152" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C152" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D152" s="3">
         <x:v>200</x:v>
@@ -4451,16 +4908,19 @@
       <x:c r="E152" s="3">
         <x:v>30102</x:v>
       </x:c>
-    </x:row>
-    <x:row r="153" spans="1:5" ht="16.399999999999999">
+      <x:c r="F152" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:6" ht="16.399999999999999">
       <x:c r="A153" s="3">
         <x:v>30104</x:v>
       </x:c>
       <x:c r="B153" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C153" s="3" t="s">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D153" s="3">
         <x:v>400</x:v>
@@ -4468,16 +4928,19 @@
       <x:c r="E153" s="3">
         <x:v>30103</x:v>
       </x:c>
-    </x:row>
-    <x:row r="154" spans="1:5" ht="16.399999999999999">
+      <x:c r="F153" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:6" ht="16.399999999999999">
       <x:c r="A154" s="3">
         <x:v>30201</x:v>
       </x:c>
       <x:c r="B154" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C154" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D154" s="3">
         <x:v>50</x:v>
@@ -4485,16 +4948,19 @@
       <x:c r="E154" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="155" spans="1:5" ht="16.399999999999999">
+      <x:c r="F154" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:6" ht="16.399999999999999">
       <x:c r="A155" s="3">
         <x:v>30202</x:v>
       </x:c>
       <x:c r="B155" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C155" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D155" s="3">
         <x:v>100</x:v>
@@ -4502,16 +4968,19 @@
       <x:c r="E155" s="3">
         <x:v>30201</x:v>
       </x:c>
-    </x:row>
-    <x:row r="156" spans="1:5" ht="16.399999999999999">
+      <x:c r="F155" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:6" ht="16.399999999999999">
       <x:c r="A156" s="3">
         <x:v>30203</x:v>
       </x:c>
       <x:c r="B156" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C156" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D156" s="3">
         <x:v>200</x:v>
@@ -4519,16 +4988,19 @@
       <x:c r="E156" s="3">
         <x:v>30202</x:v>
       </x:c>
-    </x:row>
-    <x:row r="157" spans="1:5" ht="16.399999999999999">
+      <x:c r="F156" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:6" ht="16.399999999999999">
       <x:c r="A157" s="3">
         <x:v>30204</x:v>
       </x:c>
       <x:c r="B157" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C157" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D157" s="3">
         <x:v>400</x:v>
@@ -4536,16 +5008,19 @@
       <x:c r="E157" s="3">
         <x:v>30203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="158" spans="1:5" ht="16.399999999999999">
+      <x:c r="F157" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:6" ht="16.399999999999999">
       <x:c r="A158" s="3">
         <x:v>30301</x:v>
       </x:c>
       <x:c r="B158" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C158" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D158" s="3">
         <x:v>50</x:v>
@@ -4553,16 +5028,19 @@
       <x:c r="E158" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="159" spans="1:5" ht="16.399999999999999">
+      <x:c r="F158" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:6" ht="16.399999999999999">
       <x:c r="A159" s="3">
         <x:v>30302</x:v>
       </x:c>
       <x:c r="B159" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C159" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D159" s="3">
         <x:v>100</x:v>
@@ -4570,16 +5048,19 @@
       <x:c r="E159" s="3">
         <x:v>30301</x:v>
       </x:c>
-    </x:row>
-    <x:row r="160" spans="1:5" ht="16.399999999999999">
+      <x:c r="F159" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:6" ht="16.399999999999999">
       <x:c r="A160" s="3">
         <x:v>30303</x:v>
       </x:c>
       <x:c r="B160" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C160" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D160" s="3">
         <x:v>200</x:v>
@@ -4587,16 +5068,19 @@
       <x:c r="E160" s="3">
         <x:v>30302</x:v>
       </x:c>
-    </x:row>
-    <x:row r="161" spans="1:5" ht="16.399999999999999">
+      <x:c r="F160" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:6" ht="16.399999999999999">
       <x:c r="A161" s="3">
         <x:v>30304</x:v>
       </x:c>
       <x:c r="B161" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C161" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D161" s="3">
         <x:v>400</x:v>
@@ -4604,16 +5088,19 @@
       <x:c r="E161" s="3">
         <x:v>30303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="162" spans="1:5" ht="16.399999999999999">
+      <x:c r="F161" s="3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6" ht="16.399999999999999">
       <x:c r="A162" s="3">
         <x:v>30401</x:v>
       </x:c>
       <x:c r="B162" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C162" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D162" s="3">
         <x:v>50</x:v>
@@ -4621,16 +5108,19 @@
       <x:c r="E162" s="3">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="163" spans="1:5" ht="16.399999999999999">
+      <x:c r="F162" s="3">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:6" ht="16.399999999999999">
       <x:c r="A163" s="3">
         <x:v>30402</x:v>
       </x:c>
       <x:c r="B163" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C163" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D163" s="3">
         <x:v>100</x:v>
@@ -4638,16 +5128,19 @@
       <x:c r="E163" s="3">
         <x:v>30401</x:v>
       </x:c>
-    </x:row>
-    <x:row r="164" spans="1:5" ht="16.399999999999999">
+      <x:c r="F163" s="3">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:6" ht="16.399999999999999">
       <x:c r="A164" s="3">
         <x:v>30403</x:v>
       </x:c>
       <x:c r="B164" s="3" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C164" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D164" s="3">
         <x:v>200</x:v>
@@ -4655,22 +5148,28 @@
       <x:c r="E164" s="3">
         <x:v>30402</x:v>
       </x:c>
-    </x:row>
-    <x:row r="165" spans="1:5" ht="16.399999999999999">
+      <x:c r="F164" s="3">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:6" ht="16.399999999999999">
       <x:c r="A165" s="3">
         <x:v>30404</x:v>
       </x:c>
       <x:c r="B165" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C165" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D165" s="3">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E165" s="3">
         <x:v>30403</x:v>
+      </x:c>
+      <x:c r="F165" s="3">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/UpgradeCard.xlsx
+++ b/Design/DataTable/UpgradeCard.xlsx
@@ -21,991 +21,991 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="329">
   <x:si>
+    <x:t>더 많은 증강체 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLDRS-95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뜨거운 열기 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포이즌 브레스 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹렬한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 5% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 개조 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죽음의 광선 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에너지 볼트 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기의 흐름 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감속의 모래 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유독성 구름 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날랜 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트닝 필드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP 증가 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보물 발견 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 라이트닝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빠른 광선 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레임 헤이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 폭발 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 전기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플라즈마 폭탄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단단한 벽 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양자 폭탄 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 폭격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이퀄라이저</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소각 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기장 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맹독 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 5&lt;c&gt; 공격력버프타워의 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 2000&lt;c&gt; 미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 1&lt;c&gt; 공격속도버프타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 50&lt;c&gt; 공격력버프타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈이 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈이 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붕괴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈이  80% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광시 채굴 가능한 돈이  60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율 40% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광시 채굴 가능한 돈의 비율 40%증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Ability + 0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워 Ability + 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Attack + 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 제거에 필요한 재화 - 20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Attack 피해 + 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속)&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 5&lt;c&gt; 공격속도버프타워의 Ability + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack +150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 과부하 III</x:t>
+  </x:si>
+  <x:si>
     <x:t>대포 타워에 대한 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>벽 타워 체력 + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 5% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 I</x:t>
-  </x:si>
-  <x:si>
     <x:t>레이저타워 Speed + 4</x:t>
   </x:si>
   <x:si>
-    <x:t>벽 타워 체력 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 30%</x:t>
+    <x:t>레이저타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 20% 더 느려짐</x:t>
   </x:si>
   <x:si>
     <x:t>미사일 타워에 대한 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>적이 20% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 II</x:t>
-  </x:si>
-  <x:si>
     <x:t>화상 지속시간 1초 증가</x:t>
   </x:si>
   <x:si>
-    <x:t>개틀링건 과부하 III</x:t>
-  </x:si>
-  <x:si>
     <x:t>벽 타워 체력 + 10000</x:t>
   </x:si>
   <x:si>
-    <x:t>레이저타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광 효율 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 III</x:t>
+    <x:t>타워 출현 확률 + 15%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워의 열정 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워에 대한 설명</x:t>
   </x:si>
   <x:si>
     <x:t>효율적인 장애물제거 III</x:t>
   </x:si>
   <x:si>
+    <x:t>타워 출현 확률 + 10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 열정 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효율적인 장애물제거 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 많은 증강체 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 결의 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 출현 확률 + 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자철석 채광 효율 IV</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격력버프타워의 결의 III</x:t>
   </x:si>
   <x:si>
-    <x:t>공격속도버프타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 많은 증강체 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
     <x:t>공격속도버프타워의 결의 IV</x:t>
   </x:si>
   <x:si>
-    <x:t>공격력버프타워의 결의 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워</x:t>
+    <x:t>다이아 채광 효율 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모래시계 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 2초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 10% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Range + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙련된 대포 사용 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벽 타워 체력 + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 성능 향상 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이 50% 더 느려짐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-137 개틀링건 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기충격기 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화상 지속시간 5초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력버프타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레이저타워 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Attack 피해 + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미사일 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워 Attack + 75</x:t>
   </x:si>
   <x:si>
     <x:t>증강체 선택 경우의 수 + 4</x:t>
   </x:si>
   <x:si>
+    <x:t>대포 타워의 Attack + 100</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격속도버프타워의 결의 III</x:t>
   </x:si>
   <x:si>
+    <x:t>개틀링건 타워의 Speed + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄 Attack + 2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 경우의 수 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도버프타워 Range + 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격속도버프타워의 열정 III</x:t>
   </x:si>
   <x:si>
     <x:t>공격속도버프타워 Range + 1</x:t>
   </x:si>
   <x:si>
-    <x:t>공격속도버프타워 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 선택 경우의 수 + 3</x:t>
-  </x:si>
-  <x:si>
     <x:t>공격력버프타워의 Range + 2</x:t>
   </x:si>
   <x:si>
-    <x:t>공격력버프타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>증강체 선택 경우의 수 + 1</x:t>
   </x:si>
   <x:si>
-    <x:t>공격력버프타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP 증가 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보물 발견 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30% (영구지속)&lt;c&gt; 독 타워 Ability 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>붕괴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 출현 확률 + 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 결의 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 열정 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효율적인 장애물제거 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광 효율 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광 효율 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 10000&lt;c&gt; 폭탄 범위 5x5로 확장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -10%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -5%(영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Range + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 개조 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감속의 모래 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 과부하 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에너지 볼트 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양자 폭탄 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLDRS-95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기의 흐름 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>죽음의 광선 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포이즌 브레스 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹렬한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유독성 구름 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뜨거운 열기 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 성능 향상 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙련된 대포 사용 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화상 지속시간 5초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벽 타워 체력 + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 10% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄 Attack + 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 2초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-137 개틀링건 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모래시계 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적이 50% 더 느려짐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -30%(영구지속)&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 50&lt;c&gt; 개틀링건 타워의 Speed + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>개틀링건 타워의 Speed + 4</x:t>
   </x:si>
   <x:si>
-    <x:t>폭탄 Attack + 2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Speed + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Attack 피해 + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워 Attack + 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +10</x:t>
+    <x:t>개틀링건 타워의 Attack + 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대포 타워의 Attack + 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 Speed + 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화염방사타워의 Range + 0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개틀링건 타워의 Speed + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독 타워 Ability 피해 +1</x:t>
   </x:si>
   <x:si>
     <x:t>미사일 타워의 Speed + 0.5</x:t>
   </x:si>
   <x:si>
-    <x:t>개틀링건 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 Speed + 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워 Ability 피해 +3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Attack + 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체인 라이트닝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날랜 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레임 헤이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플라즈마 폭탄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이트닝 필드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 폭발 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빠른 광선 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 전기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이퀄라이저</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 폭격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기장 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 IV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소각 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맹독 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈이 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈이 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈이  60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자철석 채광시 채굴 가능한 돈이  80% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정 채광시 채굴 가능한 돈의 비율 40%증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율 60% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율 20% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율 40% 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 Range + 3&lt;c&gt; 화염방사타워의 Speed + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Speed + 3&lt;c&gt; 대포 타워의 Attack + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Range + 5&lt;c&gt; 공격속도버프타워의 Ability + 0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Attack + 200&lt;c&gt; 전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화염방사타워의 사거리 각도가 120도로 증가&lt;c&gt; 화염방사타워의 Attack +150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability +8&lt;c&gt; 전기충격기 타워의 Attack + 75</x:t>
+    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
   </x:si>
   <x:si>
     <x:t>공격이 닿은 몬스터의 이동속도 -10% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격이 닿은 몬스터의 이동속도 -15% (영구지속)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단단한 벽 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워의 Range + 5&lt;c&gt; 공격력버프타워의 Ability + 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개틀링건 타워의 Speed + 10&lt;c&gt; 개틀링건 타워의 Attak +20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Attack + 2000&lt;c&gt; 미사일 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력버프타워 Ability + 50&lt;c&gt; 공격력버프타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 200%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 75%에 헤당하는 화상 데미지 추가&lt;c&gt; 5초간 화상 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도버프타워 Ability + 1&lt;c&gt; 공격속도버프타워의 Range + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 50%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미사일 타워의 Speed + 3&lt;c&gt; 미사일 타워의 Attack + 500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대포 타워의 Attack + 1000&lt;c&gt; 대포 타워의 Speed + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격력에 초당 25%에 해당하는 독 데미지 추가&lt;c&gt; 5초간 독 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 제거에 필요한 재화 - 20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기충격기 타워의 Ability + 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레이저타워 Attack 피해 + 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다이아 채광시 채굴 가능한 돈의 비율 80% 증가</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1862,8 +1862,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F165"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C146" activeCellId="0" sqref="C146:C146"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E129" activeCellId="0" sqref="E129:E129"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.550000000000001"/>
@@ -1877,42 +1877,42 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="16.399999999999999">
       <x:c r="A1" s="4" t="s">
-        <x:v>279</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>282</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>284</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>280</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>283</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
       <x:c r="A2" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D2" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" ht="16.399999999999999">
@@ -1920,10 +1920,10 @@
         <x:v>10101</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>259</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D3" s="4">
         <x:v>0</x:v>
@@ -1940,10 +1940,10 @@
         <x:v>10102</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>278</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>322</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D4" s="4">
         <x:v>0</x:v>
@@ -1960,10 +1960,10 @@
         <x:v>10103</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D5" s="4">
         <x:v>0</x:v>
@@ -1980,10 +1980,10 @@
         <x:v>10104</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>250</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D6" s="4">
         <x:v>0</x:v>
@@ -2000,10 +2000,10 @@
         <x:v>10105</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>268</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>315</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D7" s="4">
         <x:v>0</x:v>
@@ -2020,10 +2020,10 @@
         <x:v>10106</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>272</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>210</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D8" s="4">
         <x:v>0</x:v>
@@ -2040,10 +2040,10 @@
         <x:v>10107</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>248</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>319</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D9" s="4">
         <x:v>0</x:v>
@@ -2060,10 +2060,10 @@
         <x:v>10108</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D10" s="4">
         <x:v>0</x:v>
@@ -2080,10 +2080,10 @@
         <x:v>10109</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D11" s="4">
         <x:v>0</x:v>
@@ -2100,10 +2100,10 @@
         <x:v>10110</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>309</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D12" s="4">
         <x:v>0</x:v>
@@ -2120,10 +2120,10 @@
         <x:v>10111</x:v>
       </x:c>
       <x:c r="B13" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D13" s="4">
         <x:v>0</x:v>
@@ -2140,10 +2140,10 @@
         <x:v>10112</x:v>
       </x:c>
       <x:c r="B14" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>207</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D14" s="4">
         <x:v>50</x:v>
@@ -2160,10 +2160,10 @@
         <x:v>10113</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
-        <x:v>269</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>316</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D15" s="4">
         <x:v>50</x:v>
@@ -2180,10 +2180,10 @@
         <x:v>10114</x:v>
       </x:c>
       <x:c r="B16" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D16" s="4">
         <x:v>50</x:v>
@@ -2200,10 +2200,10 @@
         <x:v>10115</x:v>
       </x:c>
       <x:c r="B17" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D17" s="4">
         <x:v>50</x:v>
@@ -2220,10 +2220,10 @@
         <x:v>10116</x:v>
       </x:c>
       <x:c r="B18" s="4" t="s">
-        <x:v>245</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>317</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D18" s="4">
         <x:v>50</x:v>
@@ -2240,10 +2240,10 @@
         <x:v>10117</x:v>
       </x:c>
       <x:c r="B19" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>193</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D19" s="4">
         <x:v>50</x:v>
@@ -2260,10 +2260,10 @@
         <x:v>10118</x:v>
       </x:c>
       <x:c r="B20" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D20" s="4">
         <x:v>100</x:v>
@@ -2280,10 +2280,10 @@
         <x:v>10119</x:v>
       </x:c>
       <x:c r="B21" s="4" t="s">
-        <x:v>249</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>314</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D21" s="4">
         <x:v>100</x:v>
@@ -2300,10 +2300,10 @@
         <x:v>10120</x:v>
       </x:c>
       <x:c r="B22" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D22" s="4">
         <x:v>100</x:v>
@@ -2320,10 +2320,10 @@
         <x:v>10121</x:v>
       </x:c>
       <x:c r="B23" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D23" s="4">
         <x:v>100</x:v>
@@ -2340,10 +2340,10 @@
         <x:v>10122</x:v>
       </x:c>
       <x:c r="B24" s="4" t="s">
-        <x:v>270</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>302</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D24" s="4">
         <x:v>100</x:v>
@@ -2360,10 +2360,10 @@
         <x:v>10123</x:v>
       </x:c>
       <x:c r="B25" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>201</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D25" s="4">
         <x:v>100</x:v>
@@ -2380,10 +2380,10 @@
         <x:v>10201</x:v>
       </x:c>
       <x:c r="B26" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D26" s="4">
         <x:v>0</x:v>
@@ -2400,10 +2400,10 @@
         <x:v>10202</x:v>
       </x:c>
       <x:c r="B27" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D27" s="4">
         <x:v>0</x:v>
@@ -2420,10 +2420,10 @@
         <x:v>10203</x:v>
       </x:c>
       <x:c r="B28" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>204</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D28" s="4">
         <x:v>50</x:v>
@@ -2440,10 +2440,10 @@
         <x:v>10204</x:v>
       </x:c>
       <x:c r="B29" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D29" s="4">
         <x:v>100</x:v>
@@ -2460,10 +2460,10 @@
         <x:v>10205</x:v>
       </x:c>
       <x:c r="B30" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>211</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D30" s="4">
         <x:v>200</x:v>
@@ -2480,10 +2480,10 @@
         <x:v>10301</x:v>
       </x:c>
       <x:c r="B31" s="4" t="s">
-        <x:v>253</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D31" s="4">
         <x:v>0</x:v>
@@ -2500,10 +2500,10 @@
         <x:v>10302</x:v>
       </x:c>
       <x:c r="B32" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D32" s="4">
         <x:v>0</x:v>
@@ -2520,10 +2520,10 @@
         <x:v>10303</x:v>
       </x:c>
       <x:c r="B33" s="4" t="s">
-        <x:v>258</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D33" s="4">
         <x:v>0</x:v>
@@ -2540,10 +2540,10 @@
         <x:v>10304</x:v>
       </x:c>
       <x:c r="B34" s="4" t="s">
-        <x:v>179</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D34" s="4">
         <x:v>0</x:v>
@@ -2560,10 +2560,10 @@
         <x:v>10305</x:v>
       </x:c>
       <x:c r="B35" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C35" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D35" s="4">
         <x:v>50</x:v>
@@ -2580,10 +2580,10 @@
         <x:v>10306</x:v>
       </x:c>
       <x:c r="B36" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C36" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D36" s="4">
         <x:v>50</x:v>
@@ -2600,10 +2600,10 @@
         <x:v>10307</x:v>
       </x:c>
       <x:c r="B37" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
-        <x:v>306</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D37" s="4">
         <x:v>50</x:v>
@@ -2620,10 +2620,10 @@
         <x:v>10308</x:v>
       </x:c>
       <x:c r="B38" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C38" s="4" t="s">
-        <x:v>149</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D38" s="4">
         <x:v>100</x:v>
@@ -2640,10 +2640,10 @@
         <x:v>10309</x:v>
       </x:c>
       <x:c r="B39" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>242</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D39" s="4">
         <x:v>100</x:v>
@@ -2660,10 +2660,10 @@
         <x:v>10310</x:v>
       </x:c>
       <x:c r="B40" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D40" s="4">
         <x:v>100</x:v>
@@ -2680,10 +2680,10 @@
         <x:v>10311</x:v>
       </x:c>
       <x:c r="B41" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D41" s="4">
         <x:v>200</x:v>
@@ -2700,10 +2700,10 @@
         <x:v>10312</x:v>
       </x:c>
       <x:c r="B42" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>236</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D42" s="4">
         <x:v>200</x:v>
@@ -2720,10 +2720,10 @@
         <x:v>10313</x:v>
       </x:c>
       <x:c r="B43" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D43" s="4">
         <x:v>200</x:v>
@@ -2740,10 +2740,10 @@
         <x:v>10401</x:v>
       </x:c>
       <x:c r="B44" s="4" t="s">
-        <x:v>274</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>206</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D44" s="4">
         <x:v>0</x:v>
@@ -2760,10 +2760,10 @@
         <x:v>10402</x:v>
       </x:c>
       <x:c r="B45" s="4" t="s">
-        <x:v>188</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D45" s="4">
         <x:v>0</x:v>
@@ -2780,10 +2780,10 @@
         <x:v>10403</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>271</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D46" s="4">
         <x:v>0</x:v>
@@ -2800,10 +2800,10 @@
         <x:v>10404</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C47" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D47" s="4">
         <x:v>0</x:v>
@@ -2820,10 +2820,10 @@
         <x:v>10405</x:v>
       </x:c>
       <x:c r="B48" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C48" s="4" t="s">
-        <x:v>306</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D48" s="4">
         <x:v>50</x:v>
@@ -2840,10 +2840,10 @@
         <x:v>10406</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>261</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>228</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D49" s="4">
         <x:v>50</x:v>
@@ -2860,10 +2860,10 @@
         <x:v>10407</x:v>
       </x:c>
       <x:c r="B50" s="4" t="s">
-        <x:v>275</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C50" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D50" s="4">
         <x:v>50</x:v>
@@ -2880,10 +2880,10 @@
         <x:v>10408</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C51" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D51" s="4">
         <x:v>100</x:v>
@@ -2900,10 +2900,10 @@
         <x:v>10409</x:v>
       </x:c>
       <x:c r="B52" s="4" t="s">
-        <x:v>252</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C52" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="D52" s="4">
         <x:v>100</x:v>
@@ -2920,10 +2920,10 @@
         <x:v>10410</x:v>
       </x:c>
       <x:c r="B53" s="4" t="s">
-        <x:v>277</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C53" s="4" t="s">
-        <x:v>223</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D53" s="4">
         <x:v>100</x:v>
@@ -2940,10 +2940,10 @@
         <x:v>10411</x:v>
       </x:c>
       <x:c r="B54" s="4" t="s">
-        <x:v>254</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C54" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D54" s="4">
         <x:v>200</x:v>
@@ -2960,10 +2960,10 @@
         <x:v>10412</x:v>
       </x:c>
       <x:c r="B55" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C55" s="4" t="s">
-        <x:v>304</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D55" s="4">
         <x:v>200</x:v>
@@ -2980,10 +2980,10 @@
         <x:v>10413</x:v>
       </x:c>
       <x:c r="B56" s="4" t="s">
-        <x:v>265</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C56" s="4" t="s">
-        <x:v>299</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D56" s="4">
         <x:v>200</x:v>
@@ -3000,10 +3000,10 @@
         <x:v>10501</x:v>
       </x:c>
       <x:c r="B57" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C57" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D57" s="4">
         <x:v>0</x:v>
@@ -3020,10 +3020,10 @@
         <x:v>10502</x:v>
       </x:c>
       <x:c r="B58" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D58" s="4">
         <x:v>0</x:v>
@@ -3040,10 +3040,10 @@
         <x:v>10503</x:v>
       </x:c>
       <x:c r="B59" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D59" s="4">
         <x:v>0</x:v>
@@ -3060,10 +3060,10 @@
         <x:v>10504</x:v>
       </x:c>
       <x:c r="B60" s="4" t="s">
-        <x:v>120</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D60" s="4">
         <x:v>50</x:v>
@@ -3080,10 +3080,10 @@
         <x:v>10505</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D61" s="4">
         <x:v>50</x:v>
@@ -3100,10 +3100,10 @@
         <x:v>10506</x:v>
       </x:c>
       <x:c r="B62" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D62" s="4">
         <x:v>100</x:v>
@@ -3120,10 +3120,10 @@
         <x:v>10507</x:v>
       </x:c>
       <x:c r="B63" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D63" s="4">
         <x:v>100</x:v>
@@ -3140,10 +3140,10 @@
         <x:v>10508</x:v>
       </x:c>
       <x:c r="B64" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>310</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D64" s="4">
         <x:v>200</x:v>
@@ -3160,10 +3160,10 @@
         <x:v>10509</x:v>
       </x:c>
       <x:c r="B65" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>313</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D65" s="4">
         <x:v>200</x:v>
@@ -3180,10 +3180,10 @@
         <x:v>10601</x:v>
       </x:c>
       <x:c r="B66" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C66" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D66" s="4">
         <x:v>0</x:v>
@@ -3200,10 +3200,10 @@
         <x:v>10602</x:v>
       </x:c>
       <x:c r="B67" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C67" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D67" s="4">
         <x:v>0</x:v>
@@ -3220,10 +3220,10 @@
         <x:v>10603</x:v>
       </x:c>
       <x:c r="B68" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C68" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D68" s="4">
         <x:v>0</x:v>
@@ -3240,10 +3240,10 @@
         <x:v>10604</x:v>
       </x:c>
       <x:c r="B69" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C69" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D69" s="4">
         <x:v>50</x:v>
@@ -3260,10 +3260,10 @@
         <x:v>10605</x:v>
       </x:c>
       <x:c r="B70" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C70" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D70" s="4">
         <x:v>50</x:v>
@@ -3280,10 +3280,10 @@
         <x:v>10606</x:v>
       </x:c>
       <x:c r="B71" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C71" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D71" s="4">
         <x:v>100</x:v>
@@ -3300,10 +3300,10 @@
         <x:v>10607</x:v>
       </x:c>
       <x:c r="B72" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D72" s="4">
         <x:v>100</x:v>
@@ -3320,10 +3320,10 @@
         <x:v>10608</x:v>
       </x:c>
       <x:c r="B73" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>301</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D73" s="4">
         <x:v>200</x:v>
@@ -3340,10 +3340,10 @@
         <x:v>10609</x:v>
       </x:c>
       <x:c r="B74" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>318</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D74" s="4">
         <x:v>200</x:v>
@@ -3360,10 +3360,10 @@
         <x:v>10701</x:v>
       </x:c>
       <x:c r="B75" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D75" s="4">
         <x:v>0</x:v>
@@ -3380,10 +3380,10 @@
         <x:v>10702</x:v>
       </x:c>
       <x:c r="B76" s="4" t="s">
-        <x:v>263</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D76" s="4">
         <x:v>0</x:v>
@@ -3400,10 +3400,10 @@
         <x:v>10703</x:v>
       </x:c>
       <x:c r="B77" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D77" s="4">
         <x:v>0</x:v>
@@ -3420,10 +3420,10 @@
         <x:v>10704</x:v>
       </x:c>
       <x:c r="B78" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C78" s="4" t="s">
-        <x:v>213</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D78" s="4">
         <x:v>50</x:v>
@@ -3440,10 +3440,10 @@
         <x:v>10705</x:v>
       </x:c>
       <x:c r="B79" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C79" s="4" t="s">
-        <x:v>323</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D79" s="4">
         <x:v>50</x:v>
@@ -3460,10 +3460,10 @@
         <x:v>10706</x:v>
       </x:c>
       <x:c r="B80" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C80" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D80" s="4">
         <x:v>100</x:v>
@@ -3480,10 +3480,10 @@
         <x:v>10707</x:v>
       </x:c>
       <x:c r="B81" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C81" s="4" t="s">
-        <x:v>325</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D81" s="4">
         <x:v>100</x:v>
@@ -3500,10 +3500,10 @@
         <x:v>10708</x:v>
       </x:c>
       <x:c r="B82" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C82" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D82" s="4">
         <x:v>200</x:v>
@@ -3520,10 +3520,10 @@
         <x:v>10709</x:v>
       </x:c>
       <x:c r="B83" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C83" s="4" t="s">
-        <x:v>327</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D83" s="4">
         <x:v>200</x:v>
@@ -3540,10 +3540,10 @@
         <x:v>10801</x:v>
       </x:c>
       <x:c r="B84" s="4" t="s">
-        <x:v>273</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C84" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D84" s="4">
         <x:v>0</x:v>
@@ -3560,10 +3560,10 @@
         <x:v>10802</x:v>
       </x:c>
       <x:c r="B85" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C85" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D85" s="4">
         <x:v>0</x:v>
@@ -3580,10 +3580,10 @@
         <x:v>10803</x:v>
       </x:c>
       <x:c r="B86" s="4" t="s">
-        <x:v>155</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C86" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D86" s="4">
         <x:v>0</x:v>
@@ -3600,10 +3600,10 @@
         <x:v>10804</x:v>
       </x:c>
       <x:c r="B87" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C87" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D87" s="4">
         <x:v>50</x:v>
@@ -3620,10 +3620,10 @@
         <x:v>10805</x:v>
       </x:c>
       <x:c r="B88" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C88" s="4" t="s">
-        <x:v>237</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D88" s="4">
         <x:v>50</x:v>
@@ -3640,10 +3640,10 @@
         <x:v>10806</x:v>
       </x:c>
       <x:c r="B89" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C89" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D89" s="4">
         <x:v>100</x:v>
@@ -3660,10 +3660,10 @@
         <x:v>10807</x:v>
       </x:c>
       <x:c r="B90" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C90" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D90" s="4">
         <x:v>100</x:v>
@@ -3680,10 +3680,10 @@
         <x:v>10808</x:v>
       </x:c>
       <x:c r="B91" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C91" s="4" t="s">
-        <x:v>312</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D91" s="4">
         <x:v>200</x:v>
@@ -3700,10 +3700,10 @@
         <x:v>10809</x:v>
       </x:c>
       <x:c r="B92" s="4" t="s">
-        <x:v>266</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C92" s="4" t="s">
-        <x:v>320</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D92" s="4">
         <x:v>200</x:v>
@@ -3720,10 +3720,10 @@
         <x:v>10901</x:v>
       </x:c>
       <x:c r="B93" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C93" s="4" t="s">
-        <x:v>197</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D93" s="4">
         <x:v>0</x:v>
@@ -3740,10 +3740,10 @@
         <x:v>10902</x:v>
       </x:c>
       <x:c r="B94" s="4" t="s">
-        <x:v>262</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C94" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D94" s="4">
         <x:v>0</x:v>
@@ -3760,10 +3760,10 @@
         <x:v>10903</x:v>
       </x:c>
       <x:c r="B95" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C95" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D95" s="4">
         <x:v>0</x:v>
@@ -3780,10 +3780,10 @@
         <x:v>10904</x:v>
       </x:c>
       <x:c r="B96" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C96" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D96" s="4">
         <x:v>0</x:v>
@@ -3800,10 +3800,10 @@
         <x:v>10905</x:v>
       </x:c>
       <x:c r="B97" s="4" t="s">
-        <x:v>251</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C97" s="4" t="s">
-        <x:v>134</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D97" s="4">
         <x:v>50</x:v>
@@ -3820,10 +3820,10 @@
         <x:v>10906</x:v>
       </x:c>
       <x:c r="B98" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C98" s="4" t="s">
-        <x:v>217</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D98" s="4">
         <x:v>50</x:v>
@@ -3840,10 +3840,10 @@
         <x:v>10907</x:v>
       </x:c>
       <x:c r="B99" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C99" s="4" t="s">
-        <x:v>144</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D99" s="4">
         <x:v>50</x:v>
@@ -3860,10 +3860,10 @@
         <x:v>10908</x:v>
       </x:c>
       <x:c r="B100" s="4" t="s">
-        <x:v>267</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C100" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D100" s="4">
         <x:v>100</x:v>
@@ -3880,10 +3880,10 @@
         <x:v>10909</x:v>
       </x:c>
       <x:c r="B101" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C101" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D101" s="4">
         <x:v>100</x:v>
@@ -3900,10 +3900,10 @@
         <x:v>10910</x:v>
       </x:c>
       <x:c r="B102" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C102" s="4" t="s">
-        <x:v>326</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D102" s="4">
         <x:v>100</x:v>
@@ -3920,10 +3920,10 @@
         <x:v>10911</x:v>
       </x:c>
       <x:c r="B103" s="4" t="s">
-        <x:v>264</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C103" s="4" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D103" s="4">
         <x:v>200</x:v>
@@ -3940,10 +3940,10 @@
         <x:v>10912</x:v>
       </x:c>
       <x:c r="B104" s="4" t="s">
-        <x:v>246</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C104" s="4" t="s">
-        <x:v>303</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D104" s="4">
         <x:v>200</x:v>
@@ -3960,10 +3960,10 @@
         <x:v>10913</x:v>
       </x:c>
       <x:c r="B105" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C105" s="4" t="s">
-        <x:v>305</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D105" s="4">
         <x:v>200</x:v>
@@ -3980,10 +3980,10 @@
         <x:v>11001</x:v>
       </x:c>
       <x:c r="B106" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C106" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D106" s="4">
         <x:v>0</x:v>
@@ -4000,10 +4000,10 @@
         <x:v>11002</x:v>
       </x:c>
       <x:c r="B107" s="4" t="s">
-        <x:v>260</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C107" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D107" s="4">
         <x:v>0</x:v>
@@ -4020,10 +4020,10 @@
         <x:v>11003</x:v>
       </x:c>
       <x:c r="B108" s="4" t="s">
-        <x:v>308</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C108" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D108" s="4">
         <x:v>50</x:v>
@@ -4040,10 +4040,10 @@
         <x:v>11004</x:v>
       </x:c>
       <x:c r="B109" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C109" s="4" t="s">
-        <x:v>203</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D109" s="4">
         <x:v>100</x:v>
@@ -4060,10 +4060,10 @@
         <x:v>11005</x:v>
       </x:c>
       <x:c r="B110" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C110" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D110" s="4">
         <x:v>200</x:v>
@@ -4080,10 +4080,10 @@
         <x:v>11101</x:v>
       </x:c>
       <x:c r="B111" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C111" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D111" s="4">
         <x:v>0</x:v>
@@ -4100,10 +4100,10 @@
         <x:v>11102</x:v>
       </x:c>
       <x:c r="B112" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C112" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D112" s="4">
         <x:v>0</x:v>
@@ -4120,10 +4120,10 @@
         <x:v>11103</x:v>
       </x:c>
       <x:c r="B113" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C113" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D113" s="4">
         <x:v>50</x:v>
@@ -4140,10 +4140,10 @@
         <x:v>11104</x:v>
       </x:c>
       <x:c r="B114" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C114" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D114" s="4">
         <x:v>100</x:v>
@@ -4160,10 +4160,10 @@
         <x:v>11105</x:v>
       </x:c>
       <x:c r="B115" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C115" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D115" s="4">
         <x:v>200</x:v>
@@ -4180,10 +4180,10 @@
         <x:v>11201</x:v>
       </x:c>
       <x:c r="B116" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C116" s="4" t="s">
-        <x:v>199</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D116" s="4">
         <x:v>0</x:v>
@@ -4200,10 +4200,10 @@
         <x:v>11202</x:v>
       </x:c>
       <x:c r="B117" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C117" s="4" t="s">
-        <x:v>243</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D117" s="4">
         <x:v>0</x:v>
@@ -4220,10 +4220,10 @@
         <x:v>11203</x:v>
       </x:c>
       <x:c r="B118" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C118" s="4" t="s">
-        <x:v>238</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D118" s="4">
         <x:v>0</x:v>
@@ -4240,10 +4240,10 @@
         <x:v>11204</x:v>
       </x:c>
       <x:c r="B119" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C119" s="4" t="s">
-        <x:v>146</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D119" s="4">
         <x:v>50</x:v>
@@ -4260,10 +4260,10 @@
         <x:v>11205</x:v>
       </x:c>
       <x:c r="B120" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C120" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D120" s="4">
         <x:v>50</x:v>
@@ -4280,10 +4280,10 @@
         <x:v>11206</x:v>
       </x:c>
       <x:c r="B121" s="4" t="s">
-        <x:v>191</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C121" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D121" s="4">
         <x:v>100</x:v>
@@ -4300,10 +4300,10 @@
         <x:v>11207</x:v>
       </x:c>
       <x:c r="B122" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C122" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D122" s="4">
         <x:v>100</x:v>
@@ -4320,10 +4320,10 @@
         <x:v>11208</x:v>
       </x:c>
       <x:c r="B123" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C123" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D123" s="4">
         <x:v>200</x:v>
@@ -4340,10 +4340,10 @@
         <x:v>11209</x:v>
       </x:c>
       <x:c r="B124" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C124" s="4" t="s">
-        <x:v>311</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D124" s="4">
         <x:v>200</x:v>
@@ -4360,10 +4360,10 @@
         <x:v>11301</x:v>
       </x:c>
       <x:c r="B125" s="4" t="s">
-        <x:v>256</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C125" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D125" s="4">
         <x:v>0</x:v>
@@ -4380,10 +4380,10 @@
         <x:v>11302</x:v>
       </x:c>
       <x:c r="B126" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C126" s="4" t="s">
-        <x:v>231</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D126" s="4">
         <x:v>0</x:v>
@@ -4400,10 +4400,10 @@
         <x:v>11303</x:v>
       </x:c>
       <x:c r="B127" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C127" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D127" s="4">
         <x:v>0</x:v>
@@ -4420,16 +4420,16 @@
         <x:v>11304</x:v>
       </x:c>
       <x:c r="B128" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C128" s="4" t="s">
-        <x:v>234</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D128" s="4">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E128" s="4">
-        <x:v>11303</x:v>
+        <x:v>11302</x:v>
       </x:c>
       <x:c r="F128" s="4">
         <x:v>3</x:v>
@@ -4440,16 +4440,16 @@
         <x:v>11305</x:v>
       </x:c>
       <x:c r="B129" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C129" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D129" s="4">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E129" s="4">
-        <x:v>11304</x:v>
+        <x:v>11303</x:v>
       </x:c>
       <x:c r="F129" s="4">
         <x:v>3</x:v>
@@ -4460,16 +4460,16 @@
         <x:v>11306</x:v>
       </x:c>
       <x:c r="B130" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C130" s="4" t="s">
-        <x:v>244</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D130" s="4">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E130" s="4">
-        <x:v>11301</x:v>
+        <x:v>11304</x:v>
       </x:c>
       <x:c r="F130" s="4">
         <x:v>4</x:v>
@@ -4480,16 +4480,16 @@
         <x:v>11307</x:v>
       </x:c>
       <x:c r="B131" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C131" s="4" t="s">
-        <x:v>220</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D131" s="4">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E131" s="4">
-        <x:v>11306</x:v>
+        <x:v>11305</x:v>
       </x:c>
       <x:c r="F131" s="4">
         <x:v>4</x:v>
@@ -4500,16 +4500,16 @@
         <x:v>11308</x:v>
       </x:c>
       <x:c r="B132" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C132" s="4" t="s">
-        <x:v>321</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D132" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E132" s="4">
-        <x:v>11307</x:v>
+        <x:v>11306</x:v>
       </x:c>
       <x:c r="F132" s="4">
         <x:v>5</x:v>
@@ -4520,16 +4520,16 @@
         <x:v>11309</x:v>
       </x:c>
       <x:c r="B133" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C133" s="4" t="s">
-        <x:v>300</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D133" s="4">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E133" s="4">
-        <x:v>11308</x:v>
+        <x:v>11307</x:v>
       </x:c>
       <x:c r="F133" s="4">
         <x:v>5</x:v>
@@ -4540,10 +4540,10 @@
         <x:v>20101</x:v>
       </x:c>
       <x:c r="B134" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C134" s="4" t="s">
-        <x:v>285</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D134" s="4">
         <x:v>0</x:v>
@@ -4560,10 +4560,10 @@
         <x:v>20102</x:v>
       </x:c>
       <x:c r="B135" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C135" s="4" t="s">
-        <x:v>286</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D135" s="4">
         <x:v>50</x:v>
@@ -4580,10 +4580,10 @@
         <x:v>20103</x:v>
       </x:c>
       <x:c r="B136" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C136" s="4" t="s">
-        <x:v>287</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D136" s="4">
         <x:v>100</x:v>
@@ -4600,10 +4600,10 @@
         <x:v>20104</x:v>
       </x:c>
       <x:c r="B137" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C137" s="4" t="s">
-        <x:v>288</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D137" s="4">
         <x:v>200</x:v>
@@ -4620,10 +4620,10 @@
         <x:v>20201</x:v>
       </x:c>
       <x:c r="B138" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C138" s="4" t="s">
-        <x:v>289</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D138" s="4">
         <x:v>0</x:v>
@@ -4640,10 +4640,10 @@
         <x:v>20202</x:v>
       </x:c>
       <x:c r="B139" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C139" s="4" t="s">
-        <x:v>292</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D139" s="4">
         <x:v>50</x:v>
@@ -4660,10 +4660,10 @@
         <x:v>20203</x:v>
       </x:c>
       <x:c r="B140" s="4" t="s">
-        <x:v>130</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C140" s="4" t="s">
-        <x:v>291</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D140" s="4">
         <x:v>100</x:v>
@@ -4680,10 +4680,10 @@
         <x:v>20204</x:v>
       </x:c>
       <x:c r="B141" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C141" s="4" t="s">
-        <x:v>290</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D141" s="4">
         <x:v>200</x:v>
@@ -4700,10 +4700,10 @@
         <x:v>20301</x:v>
       </x:c>
       <x:c r="B142" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C142" s="4" t="s">
-        <x:v>293</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D142" s="4">
         <x:v>0</x:v>
@@ -4720,10 +4720,10 @@
         <x:v>20302</x:v>
       </x:c>
       <x:c r="B143" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C143" s="4" t="s">
-        <x:v>294</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D143" s="4">
         <x:v>50</x:v>
@@ -4740,10 +4740,10 @@
         <x:v>20303</x:v>
       </x:c>
       <x:c r="B144" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C144" s="4" t="s">
-        <x:v>295</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D144" s="4">
         <x:v>100</x:v>
@@ -4760,10 +4760,10 @@
         <x:v>20304</x:v>
       </x:c>
       <x:c r="B145" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C145" s="4" t="s">
-        <x:v>296</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D145" s="4">
         <x:v>200</x:v>
@@ -4780,10 +4780,10 @@
         <x:v>20401</x:v>
       </x:c>
       <x:c r="B146" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C146" s="4" t="s">
-        <x:v>297</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D146" s="4">
         <x:v>0</x:v>
@@ -4800,10 +4800,10 @@
         <x:v>20402</x:v>
       </x:c>
       <x:c r="B147" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C147" s="4" t="s">
-        <x:v>298</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D147" s="4">
         <x:v>50</x:v>
@@ -4820,10 +4820,10 @@
         <x:v>20403</x:v>
       </x:c>
       <x:c r="B148" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C148" s="4" t="s">
-        <x:v>281</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D148" s="4">
         <x:v>100</x:v>
@@ -4840,10 +4840,10 @@
         <x:v>20404</x:v>
       </x:c>
       <x:c r="B149" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C149" s="4" t="s">
-        <x:v>328</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D149" s="4">
         <x:v>200</x:v>
@@ -4860,10 +4860,10 @@
         <x:v>30101</x:v>
       </x:c>
       <x:c r="B150" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C150" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D150" s="4">
         <x:v>50</x:v>
@@ -4880,10 +4880,10 @@
         <x:v>30102</x:v>
       </x:c>
       <x:c r="B151" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C151" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D151" s="4">
         <x:v>100</x:v>
@@ -4900,10 +4900,10 @@
         <x:v>30103</x:v>
       </x:c>
       <x:c r="B152" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C152" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D152" s="4">
         <x:v>200</x:v>
@@ -4920,10 +4920,10 @@
         <x:v>30104</x:v>
       </x:c>
       <x:c r="B153" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C153" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D153" s="4">
         <x:v>400</x:v>
@@ -4940,10 +4940,10 @@
         <x:v>30201</x:v>
       </x:c>
       <x:c r="B154" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C154" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D154" s="4">
         <x:v>50</x:v>
@@ -4960,10 +4960,10 @@
         <x:v>30202</x:v>
       </x:c>
       <x:c r="B155" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C155" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D155" s="4">
         <x:v>100</x:v>
@@ -4980,10 +4980,10 @@
         <x:v>30203</x:v>
       </x:c>
       <x:c r="B156" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C156" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D156" s="4">
         <x:v>200</x:v>
@@ -5000,10 +5000,10 @@
         <x:v>30204</x:v>
       </x:c>
       <x:c r="B157" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C157" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D157" s="4">
         <x:v>400</x:v>
@@ -5020,10 +5020,10 @@
         <x:v>30301</x:v>
       </x:c>
       <x:c r="B158" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C158" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D158" s="4">
         <x:v>50</x:v>
@@ -5040,10 +5040,10 @@
         <x:v>30302</x:v>
       </x:c>
       <x:c r="B159" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C159" s="4" t="s">
-        <x:v>324</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D159" s="4">
         <x:v>100</x:v>
@@ -5060,10 +5060,10 @@
         <x:v>30303</x:v>
       </x:c>
       <x:c r="B160" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C160" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D160" s="4">
         <x:v>200</x:v>
@@ -5080,10 +5080,10 @@
         <x:v>30304</x:v>
       </x:c>
       <x:c r="B161" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C161" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D161" s="4">
         <x:v>400</x:v>
@@ -5100,10 +5100,10 @@
         <x:v>30401</x:v>
       </x:c>
       <x:c r="B162" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C162" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D162" s="4">
         <x:v>50</x:v>
@@ -5120,10 +5120,10 @@
         <x:v>30402</x:v>
       </x:c>
       <x:c r="B163" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C163" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D163" s="4">
         <x:v>100</x:v>
@@ -5140,10 +5140,10 @@
         <x:v>30403</x:v>
       </x:c>
       <x:c r="B164" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C164" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D164" s="4">
         <x:v>200</x:v>
@@ -5160,10 +5160,10 @@
         <x:v>30404</x:v>
       </x:c>
       <x:c r="B165" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C165" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D165" s="4">
         <x:v>400</x:v>
